--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_271.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_271.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32276-d217222-Reviews-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>145</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Extended-Stay-America-Orange-County-Cypress.h200650.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_271.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_271.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="668">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1900 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r579366160-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>32276</t>
+  </si>
+  <si>
+    <t>217222</t>
+  </si>
+  <si>
+    <t>579366160</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Exellent staff</t>
+  </si>
+  <si>
+    <t>Staff was very friendly. I believe his name to be Alex, was very helpful and efficient. Checking in was fast. Rooms are clean. Hotel is quiet. Kitchen was larger than expected. Free and abundant parking. Food close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Staff was very friendly. I believe his name to be Alex, was very helpful and efficient. Checking in was fast. Rooms are clean. Hotel is quiet. Kitchen was larger than expected. Free and abundant parking. Food close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r565204489-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>565204489</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Great place and everyone there is very nice and will help u at whenever they can. the management team is the best, location is outstanding, everything u can ask for is actually within walking distance if u so choose. you couldnt ask for a safer location and a more friendly enviromentMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Great place and everyone there is very nice and will help u at whenever they can. the management team is the best, location is outstanding, everything u can ask for is actually within walking distance if u so choose. you couldnt ask for a safer location and a more friendly enviromentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r562143321-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>562143321</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Never Again, Horibble.</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE AT ALL COSTS.  Had to call their headquarters/regional office while staying there.Thoroughly disappointed and disgusted at this place.  All the negative reviews are true.Here's the list:- TV remote did not upon arrival.- Kitchen supplies needed to be ordered.  You'd think if there was a kitchen it'd be stocked with the basic essentials upon guest arrival.- Towels smelled like dried fish.- Found 2 cockroaches throughout the stay. - Front desk service a okay.    - Found sunflower seed shells on the floor near the bed. - Asked to have our bed sheets changed since we renewed our reservation for another night, but they didn't and didn't make it seem like they could do anything about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE AT ALL COSTS.  Had to call their headquarters/regional office while staying there.Thoroughly disappointed and disgusted at this place.  All the negative reviews are true.Here's the list:- TV remote did not upon arrival.- Kitchen supplies needed to be ordered.  You'd think if there was a kitchen it'd be stocked with the basic essentials upon guest arrival.- Towels smelled like dried fish.- Found 2 cockroaches throughout the stay. - Front desk service a okay.    - Found sunflower seed shells on the floor near the bed. - Asked to have our bed sheets changed since we renewed our reservation for another night, but they didn't and didn't make it seem like they could do anything about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r542509255-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>542509255</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Grab and go up and went</t>
+  </si>
+  <si>
+    <t>Positive - The size of the room was nice and big. The room was clean. There is plenty of parking. The bed was comfortable. Regina at the front desk is a jewel. Not so positive - No ice machine on property. No hair dryer in room. The light was turned off in breakfast room, so you really could not see the sparse selection of muffins and granola bars.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Positive - The size of the room was nice and big. The room was clean. There is plenty of parking. The bed was comfortable. Regina at the front desk is a jewel. Not so positive - No ice machine on property. No hair dryer in room. The light was turned off in breakfast room, so you really could not see the sparse selection of muffins and granola bars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r541877390-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>541877390</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Do Not recommend</t>
+  </si>
+  <si>
+    <t>Do Not recommend. Hotel is not adequately staffed. On Check in at 3pm we requested the kitchen courtesy oak because we planned to prepare meals during our stay. Finally st 8pm after  additional requests the desk clerk showed  up with a few of the items. No ice maker in the hotel  and no ice in the refrigerator. Stove took 25 minutes to boil water to make tea. Room had not been adequately cleaned or vacummed. Save yourself some frustration  and stay in a different hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Do Not recommend. Hotel is not adequately staffed. On Check in at 3pm we requested the kitchen courtesy oak because we planned to prepare meals during our stay. Finally st 8pm after  additional requests the desk clerk showed  up with a few of the items. No ice maker in the hotel  and no ice in the refrigerator. Stove took 25 minutes to boil water to make tea. Room had not been adequately cleaned or vacummed. Save yourself some frustration  and stay in a different hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r535803387-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>535803387</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>I want to start off by saying that Regina is very personal in helping out with any issues that comes up. And is always on top of anything is ask her. She deserves a promotion. If you ever come her ask for Regina’s assistance. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>I want to start off by saying that Regina is very personal in helping out with any issues that comes up. And is always on top of anything is ask her. She deserves a promotion. If you ever come her ask for Regina’s assistance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r526573004-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>526573004</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Amazing visit</t>
+  </si>
+  <si>
+    <t>The room was great, so clean. It had a built it kitchen which is great for at home food. The man, Alex, at the front desk was awesome! Kept conversation going and even gave us a little travel goodie bag of candy. Super sweet! Would come again :-) MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded September 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2017</t>
+  </si>
+  <si>
+    <t>The room was great, so clean. It had a built it kitchen which is great for at home food. The man, Alex, at the front desk was awesome! Kept conversation going and even gave us a little travel goodie bag of candy. Super sweet! Would come again :-) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r513243603-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>513243603</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Quick Overnighter</t>
+  </si>
+  <si>
+    <t>A room with a kitchen but no dishes, cups, glasses, silverware, etc is kind of useless. Having the refrigerator was nice. If you stay here, just be sure to bring your own kitchen wares.  Room was clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>A room with a kitchen but no dishes, cups, glasses, silverware, etc is kind of useless. Having the refrigerator was nice. If you stay here, just be sure to bring your own kitchen wares.  Room was clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r512991350-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>512991350</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>front desk gave away a prepaid room and turned away a customer</t>
+  </si>
+  <si>
+    <t>Had 3 prepaid reserved rooms.  Checked 2 people in during the afternoon and gave the name of the 3rd person who was checking in later.  When the 3rd person came to check in, he was told the hotel was full and the room was canceled, and he was turned away from what was a prepaid, reserved room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had 3 prepaid reserved rooms.  Checked 2 people in during the afternoon and gave the name of the 3rd person who was checking in later.  When the 3rd person came to check in, he was told the hotel was full and the room was canceled, and he was turned away from what was a prepaid, reserved room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r507956872-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>507956872</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Nothing Special</t>
+  </si>
+  <si>
+    <t>This hotel was "just okay"! The room was comfortable but it wasn't anything special. There is no restroom in the lobby and we had to wait for our room! The lobby has no coffee most of the time. Grab n go breakfast was a joke!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was "just okay"! The room was comfortable but it wasn't anything special. There is no restroom in the lobby and we had to wait for our room! The lobby has no coffee most of the time. Grab n go breakfast was a joke!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r507921967-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>507921967</t>
+  </si>
+  <si>
+    <t>Temporary home</t>
+  </si>
+  <si>
+    <t>While our nearby home was being fumigated we needed a convenient, comfortable and reasonably-priced place to stay while going about business as usual. It wasn't a vacation, so we didn't need frills - just a clean, pleasant room to call home for 3 nights. It fit the bill perfectly.MoreShow less</t>
+  </si>
+  <si>
+    <t>While our nearby home was being fumigated we needed a convenient, comfortable and reasonably-priced place to stay while going about business as usual. It wasn't a vacation, so we didn't need frills - just a clean, pleasant room to call home for 3 nights. It fit the bill perfectly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r507645508-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>507645508</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>FAMILY VACATION</t>
+  </si>
+  <si>
+    <t>Great stay overall. Hotel was nice and clean very relaxing and quite. Prices were at a good range. The environment was very friendly. Would definatly stay here again and would highly recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great stay overall. Hotel was nice and clean very relaxing and quite. Prices were at a good range. The environment was very friendly. Would definatly stay here again and would highly recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r502372853-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>502372853</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Good value for a long stay</t>
+  </si>
+  <si>
+    <t>Perfect place to stay for a long business related trip in Orange County. I stayed for 6 months, the staff changed a few times, it would have been best if the same staff was there all the time. Overall a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Perfect place to stay for a long business related trip in Orange County. I stayed for 6 months, the staff changed a few times, it would have been best if the same staff was there all the time. Overall a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r500294390-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>500294390</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location.  Staff was friendly and helpful and the room was clean.  Small bed but no problems sleeping.  Recommend the Chili's across the street for good food and cold adult beverages.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location.  Staff was friendly and helpful and the room was clean.  Small bed but no problems sleeping.  Recommend the Chili's across the street for good food and cold adult beverages.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r499566771-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>499566771</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Very helpful Staff</t>
+  </si>
+  <si>
+    <t>This review is for non-smoking King Room  Hotel staff was very warm and welcoming . They did reservation on same night and extended for next 2 days . I am very pleased with Jessica's service . Since you have a small kitchen , in every room - you can cook meals (they provide utensils) . This is especially helpful for families with Kids .MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2017</t>
+  </si>
+  <si>
+    <t>This review is for non-smoking King Room  Hotel staff was very warm and welcoming . They did reservation on same night and extended for next 2 days . I am very pleased with Jessica's service . Since you have a small kitchen , in every room - you can cook meals (they provide utensils) . This is especially helpful for families with Kids .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r496037771-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>496037771</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Pleasant property, comfortable beds. Family friendly. Great grab n go breakfast. Clean and kitchenettes too! Definitely recommend for business trips, staycations and pet friendly as well. We will come back again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Pleasant property, comfortable beds. Family friendly. Great grab n go breakfast. Clean and kitchenettes too! Definitely recommend for business trips, staycations and pet friendly as well. We will come back again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r480587298-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>480587298</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Same old thing, never again</t>
+  </si>
+  <si>
+    <t>we have tried Extended stay at four different locations in southern California to visit family and each time the room, or bed, or TV or noise is always a issue. This time all four were the issue. so called queen size bed was a full size at best and very hard, the old GE refrigerator was very noisey even when turned all the way down with ear plugs in to try to sleep, the TV remote didn't work and the flat screen had a 1 foot vertical white line in the center, the Wi Fi was down all night and the noisey kids above us were yelling at each other until midnight....even the outside grounds as to the parking areas were needing to be steam cleaned and swept as well as the sidewalks to enter the hotel. Morning coffee in lobby was ok and mimi muffins and granola bars and dry oatmeal ( no milk, maybe use the coffee creamer and water? ) ao will we stay again at any locations? Nope, they are all the same....MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>we have tried Extended stay at four different locations in southern California to visit family and each time the room, or bed, or TV or noise is always a issue. This time all four were the issue. so called queen size bed was a full size at best and very hard, the old GE refrigerator was very noisey even when turned all the way down with ear plugs in to try to sleep, the TV remote didn't work and the flat screen had a 1 foot vertical white line in the center, the Wi Fi was down all night and the noisey kids above us were yelling at each other until midnight....even the outside grounds as to the parking areas were needing to be steam cleaned and swept as well as the sidewalks to enter the hotel. Morning coffee in lobby was ok and mimi muffins and granola bars and dry oatmeal ( no milk, maybe use the coffee creamer and water? ) ao will we stay again at any locations? Nope, they are all the same....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r474375353-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>474375353</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>The hotel is in a business park. It's right off a main road, so it has access to places. The place is clean. My room had 2 beds, a stove, a full sized refrigerator with freezer space, a sink, and a small dining area included with typical hotel things. Brenda and Jessica were good in asking if things are OK throughout my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is in a business park. It's right off a main road, so it has access to places. The place is clean. My room had 2 beds, a stove, a full sized refrigerator with freezer space, a sink, and a small dining area included with typical hotel things. Brenda and Jessica were good in asking if things are OK throughout my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r461501285-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>461501285</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>No nearby attractions but halfway between Disney &amp; Long Beach</t>
+  </si>
+  <si>
+    <t>I needed a place to stay one night after a cruise at Long Beach.  This hotel is off by itself in a business park.  The hotel is clean, quiet, friendly staff.  The upstairs hallway smelled of smoke but not in the rooms.  The beds were comfortable, nice sized TV, huge kitchen which we didn't use except for the full sized fridge.  I had to ask for a hair dryer.  They have a large guest laundry room with many machines.  The only disappointment was the "grab-n-go" breakfast which was oatmeal packets, hot chocolate/coffee, muffins, breakfast bars and nowhere to sit.  It was OK, but if I had known I might have chosen a place with a full hot breakfast.  I guess any longterm guest would buy breakfast foods for themselves so they don't want to encourage eating theirs.A tip is that across the parking lot is a small business park (there's a gate through the wall) with a delicious looking Hawaiian place, Wendy's, Fedex, and a couple unmemorable places.  If I had known, I would have eaten there instead of grabbing drive-thru on the way over.  The Wendy's had at least one breakfast sandwich but I didn't eat there.It's not near anything, but reasonable driving distance to Disney (20 min), Long Beach (20 min), and LA (45 min).Overall it was nicer than a La Quinta except for the breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>I needed a place to stay one night after a cruise at Long Beach.  This hotel is off by itself in a business park.  The hotel is clean, quiet, friendly staff.  The upstairs hallway smelled of smoke but not in the rooms.  The beds were comfortable, nice sized TV, huge kitchen which we didn't use except for the full sized fridge.  I had to ask for a hair dryer.  They have a large guest laundry room with many machines.  The only disappointment was the "grab-n-go" breakfast which was oatmeal packets, hot chocolate/coffee, muffins, breakfast bars and nowhere to sit.  It was OK, but if I had known I might have chosen a place with a full hot breakfast.  I guess any longterm guest would buy breakfast foods for themselves so they don't want to encourage eating theirs.A tip is that across the parking lot is a small business park (there's a gate through the wall) with a delicious looking Hawaiian place, Wendy's, Fedex, and a couple unmemorable places.  If I had known, I would have eaten there instead of grabbing drive-thru on the way over.  The Wendy's had at least one breakfast sandwich but I didn't eat there.It's not near anything, but reasonable driving distance to Disney (20 min), Long Beach (20 min), and LA (45 min).Overall it was nicer than a La Quinta except for the breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r460674633-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>460674633</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Quick and easy</t>
+  </si>
+  <si>
+    <t>I came very late and front desk girl was so friendly and kind she quecked me in very quickly everything went well and she asked if i needed anything to let her know so my stay was conforming ad i will stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>I came very late and front desk girl was so friendly and kind she quecked me in very quickly everything went well and she asked if i needed anything to let her know so my stay was conforming ad i will stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r449373151-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>449373151</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Requested 1st floor for disabled</t>
+  </si>
+  <si>
+    <t>Even with confirming our reservation and request, we were placed on the 2nd floor AND the room couldn't have been further from the elevator. Very disappointed in the indifference of the staff and would never consider staying at this location in the future.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r425947813-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>425947813</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Nice Quite Neighborhood..</t>
+  </si>
+  <si>
+    <t>Hotel is located in nice quiet neighborhood. Staff is efficient but short staffed. Rooms are neat and clean. Location is excellent if you are on family holiday as it is 15 minutes from many children's attractions including Disney World. Very nice restaurants in the neighborhood.. Stayed here for almost 3 weeks. Good experience.. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is located in nice quiet neighborhood. Staff is efficient but short staffed. Rooms are neat and clean. Location is excellent if you are on family holiday as it is 15 minutes from many children's attractions including Disney World. Very nice restaurants in the neighborhood.. Stayed here for almost 3 weeks. Good experience.. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r424580023-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>424580023</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Professional staff and excellent service!</t>
+  </si>
+  <si>
+    <t>Whenever in the area for business or pleasure, Extended Stay Cypress is always my first choice.  I always appreciate the the professional staff which includes Eddie, Jazmin, Michelle and Roshan.  Rooms are clean and comfortable in a modern atmosphere that is near to a wide variety of food establishments.  I would definitely recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Whenever in the area for business or pleasure, Extended Stay Cypress is always my first choice.  I always appreciate the the professional staff which includes Eddie, Jazmin, Michelle and Roshan.  Rooms are clean and comfortable in a modern atmosphere that is near to a wide variety of food establishments.  I would definitely recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r423720291-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>423720291</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Days w No Clue This Is A Serve Yourself Hotel </t>
+  </si>
+  <si>
+    <t>I flew in from Hawaii to help my Mom w her broken Ankle after her Chemo. Her landlord was having copper piping done throughout the complex so we had to be moved To "Hotel" .. little did we know how basic this was. Never been to a hotel with NO DAILY MAID SERVICE.. No Vacuuming , No Trash Emptied, No Fresh Towels in Room, No bed Made Dailey..Rooms have Very thin walls and the doors were all slammed by neighbors Constantly ALL DAYS ..This was a Huge Shock to Us. Would've been nice at Check In to learn this is a Self Serve Hotel . Rooms Should've Reflected in Price.. Their Breakfast is Banana Nut, Choc or Blueberry Muffins from Costco individually wrapped. Hot Choc or Coffee ..Dailey 6:30-9:30am.. Michelle and Jazmin were very nice at Front Desk. Luckily.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I flew in from Hawaii to help my Mom w her broken Ankle after her Chemo. Her landlord was having copper piping done throughout the complex so we had to be moved To "Hotel" .. little did we know how basic this was. Never been to a hotel with NO DAILY MAID SERVICE.. No Vacuuming , No Trash Emptied, No Fresh Towels in Room, No bed Made Dailey..Rooms have Very thin walls and the doors were all slammed by neighbors Constantly ALL DAYS ..This was a Huge Shock to Us. Would've been nice at Check In to learn this is a Self Serve Hotel . Rooms Should've Reflected in Price.. Their Breakfast is Banana Nut, Choc or Blueberry Muffins from Costco individually wrapped. Hot Choc or Coffee ..Dailey 6:30-9:30am.. Michelle and Jazmin were very nice at Front Desk. Luckily.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r418880706-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>418880706</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Great Stay for Work</t>
+  </si>
+  <si>
+    <t>I've been at this Extended Stay for about a month for work, and the employees really go above and beyond to make sure your needs are met. I've stayed at others in Southern California and this one is by far the nicest, most pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>I've been at this Extended Stay for about a month for work, and the employees really go above and beyond to make sure your needs are met. I've stayed at others in Southern California and this one is by far the nicest, most pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r404724712-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>404724712</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Unfriendly</t>
+  </si>
+  <si>
+    <t>I never wrote review before , and usually travel at least 10 times a year , but this has been worse customer Service ever , not sure how they are stillIn business , Booked through Hotwire arrived late night with my wife and 2 kids. Was given smoking room even I called early to request non smoking ,  with one bed for 2 adult and 2 kids , no sofa no recliner , only one wooden chair , told that the room they have. Because I booked through Hotwire they can not guarantee any room and the front desk was very rude , did note try to help at all  ,asked for extra bed. Or even extra blanket said can not give me anything  , I end up sleeping on the ground ,next morning, they said they can not promise me that they can change room and most likely they will not , so I just left , worse experience with Hotel ever. I learned not to use Hotwire again, but this hotel is really bad , room are very small. No iron no coffee maker , one small bedMoreShow less</t>
+  </si>
+  <si>
+    <t>I never wrote review before , and usually travel at least 10 times a year , but this has been worse customer Service ever , not sure how they are stillIn business , Booked through Hotwire arrived late night with my wife and 2 kids. Was given smoking room even I called early to request non smoking ,  with one bed for 2 adult and 2 kids , no sofa no recliner , only one wooden chair , told that the room they have. Because I booked through Hotwire they can not guarantee any room and the front desk was very rude , did note try to help at all  ,asked for extra bed. Or even extra blanket said can not give me anything  , I end up sleeping on the ground ,next morning, they said they can not promise me that they can change room and most likely they will not , so I just left , worse experience with Hotel ever. I learned not to use Hotwire again, but this hotel is really bad , room are very small. No iron no coffee maker , one small bedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r403835117-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>403835117</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Unhappy guests</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks and not once did they clean our rooms. We had 3! They were seriously under-staffed.  Also the rooms had a terrible smell in each one. We bought air fresheners, but the smell never went away. They did not empty the trash rooms regularly either.  On our last day someone had placed their trash in the hallway instead of walking it to the trash room. So glad to check out!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks and not once did they clean our rooms. We had 3! They were seriously under-staffed.  Also the rooms had a terrible smell in each one. We bought air fresheners, but the smell never went away. They did not empty the trash rooms regularly either.  On our last day someone had placed their trash in the hallway instead of walking it to the trash room. So glad to check out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r399231295-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>399231295</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>I travel often for work and have stayed at several Extended Stays before. I'm beyond disappointed with our experience at this location. When we arrived at the hotel our room wasn't ready along with several other families we were traveling with.  We all were corralled into a room to wait and wait for our rooms to be ready long after the 3:00 check in. 
+The hotel was extremely understaffed and was unable to offer the basics like clean towels and enough cooking utensils for each room. One of the reasons we selected the Extended Stay was so we could use the full kitchens to cook. We had to make several trips to the front desk to gather each basic item we needed like knife, dish soap, cutting board and even a basic pot. 
+The hotel is poorly managed and in disarray. The garbages are overflowing inside and outside the property.  They are behind on laundry daily. One day my daughter had to dry off with a hand towel and the hairdryer because they had zero clean towels.  The amenities are beyond limited. No pool, no exercise room, no business room just s dirty laundry room and in theory full kitchen but be advised they don't have ovens and they don't have enough utensils. 
+The rooms are dates and the beds are old, warn and creaky (read loud if you move). Everything was loud in our room. The fridge had a...I travel often for work and have stayed at several Extended Stays before. I'm beyond disappointed with our experience at this location. When we arrived at the hotel our room wasn't ready along with several other families we were traveling with.  We all were corralled into a room to wait and wait for our rooms to be ready long after the 3:00 check in. The hotel was extremely understaffed and was unable to offer the basics like clean towels and enough cooking utensils for each room. One of the reasons we selected the Extended Stay was so we could use the full kitchens to cook. We had to make several trips to the front desk to gather each basic item we needed like knife, dish soap, cutting board and even a basic pot. The hotel is poorly managed and in disarray. The garbages are overflowing inside and outside the property.  They are behind on laundry daily. One day my daughter had to dry off with a hand towel and the hairdryer because they had zero clean towels.  The amenities are beyond limited. No pool, no exercise room, no business room just s dirty laundry room and in theory full kitchen but be advised they don't have ovens and they don't have enough utensils. The rooms are dates and the beds are old, warn and creaky (read loud if you move). Everything was loud in our room. The fridge had a whine to it, the fan in the bathroom sounded like a plane landing and the AC unit raddled. The bathrooms are even more dated and in need of repair. The shower/tub looked dirty because it was so old and has had so many shoddy repair jobs. The upside to staying here is we finally get to checkout today.  It's not worth any discount they offer stay somewhere else. MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel often for work and have stayed at several Extended Stays before. I'm beyond disappointed with our experience at this location. When we arrived at the hotel our room wasn't ready along with several other families we were traveling with.  We all were corralled into a room to wait and wait for our rooms to be ready long after the 3:00 check in. 
+The hotel was extremely understaffed and was unable to offer the basics like clean towels and enough cooking utensils for each room. One of the reasons we selected the Extended Stay was so we could use the full kitchens to cook. We had to make several trips to the front desk to gather each basic item we needed like knife, dish soap, cutting board and even a basic pot. 
+The hotel is poorly managed and in disarray. The garbages are overflowing inside and outside the property.  They are behind on laundry daily. One day my daughter had to dry off with a hand towel and the hairdryer because they had zero clean towels.  The amenities are beyond limited. No pool, no exercise room, no business room just s dirty laundry room and in theory full kitchen but be advised they don't have ovens and they don't have enough utensils. 
+The rooms are dates and the beds are old, warn and creaky (read loud if you move). Everything was loud in our room. The fridge had a...I travel often for work and have stayed at several Extended Stays before. I'm beyond disappointed with our experience at this location. When we arrived at the hotel our room wasn't ready along with several other families we were traveling with.  We all were corralled into a room to wait and wait for our rooms to be ready long after the 3:00 check in. The hotel was extremely understaffed and was unable to offer the basics like clean towels and enough cooking utensils for each room. One of the reasons we selected the Extended Stay was so we could use the full kitchens to cook. We had to make several trips to the front desk to gather each basic item we needed like knife, dish soap, cutting board and even a basic pot. The hotel is poorly managed and in disarray. The garbages are overflowing inside and outside the property.  They are behind on laundry daily. One day my daughter had to dry off with a hand towel and the hairdryer because they had zero clean towels.  The amenities are beyond limited. No pool, no exercise room, no business room just s dirty laundry room and in theory full kitchen but be advised they don't have ovens and they don't have enough utensils. The rooms are dates and the beds are old, warn and creaky (read loud if you move). Everything was loud in our room. The fridge had a whine to it, the fan in the bathroom sounded like a plane landing and the AC unit raddled. The bathrooms are even more dated and in need of repair. The shower/tub looked dirty because it was so old and has had so many shoddy repair jobs. The upside to staying here is we finally get to checkout today.  It's not worth any discount they offer stay somewhere else. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r398648176-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>398648176</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Clients left standing in lobby at midnight when they tried to check into pre-paid rooms</t>
+  </si>
+  <si>
+    <t>Booked five rooms at this hotel for a show at the Convention Center nearby.  Confirmation states that changes or cancellation must be made by 6:00 pm on July 24th (first night of stay).  Client decided they didn't need the first night on three rooms so I called to cancel first night on July 23rd.  Was told sorry, they were sold out for the remaining nights of the reservation so they would not be able to cancel the first night.  Huh?  Got Hotels.com involved and they were able to contact hotel and get the first night cancelled, sent me an email confirmation they were cancelled and the refund was coming.  All good.  Clients went to check in on night of July 25 at 11:30 pm (after working all day at convention center) and were told their rooms were cancelled altogether and that they were sold out.  No manager available to reason with.  Found rooms at two different hotels at a much higher rate because it's very close to Disneyland and it's summer!  Hotels.com calls them again the following day and the hotel manager said the person (their employee) who originally cancelled the first night had no authority to do so.  Oh, and not only that but the clients were charged a no-show fee. I can't even begin to explain what a horrible situation this has been, not to mention my clients want to know where their refund is for the entire...Booked five rooms at this hotel for a show at the Convention Center nearby.  Confirmation states that changes or cancellation must be made by 6:00 pm on July 24th (first night of stay).  Client decided they didn't need the first night on three rooms so I called to cancel first night on July 23rd.  Was told sorry, they were sold out for the remaining nights of the reservation so they would not be able to cancel the first night.  Huh?  Got Hotels.com involved and they were able to contact hotel and get the first night cancelled, sent me an email confirmation they were cancelled and the refund was coming.  All good.  Clients went to check in on night of July 25 at 11:30 pm (after working all day at convention center) and were told their rooms were cancelled altogether and that they were sold out.  No manager available to reason with.  Found rooms at two different hotels at a much higher rate because it's very close to Disneyland and it's summer!  Hotels.com calls them again the following day and the hotel manager said the person (their employee) who originally cancelled the first night had no authority to do so.  Oh, and not only that but the clients were charged a no-show fee. I can't even begin to explain what a horrible situation this has been, not to mention my clients want to know where their refund is for the entire stay.  Hotels.com/Expedia is figuring it out from here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked five rooms at this hotel for a show at the Convention Center nearby.  Confirmation states that changes or cancellation must be made by 6:00 pm on July 24th (first night of stay).  Client decided they didn't need the first night on three rooms so I called to cancel first night on July 23rd.  Was told sorry, they were sold out for the remaining nights of the reservation so they would not be able to cancel the first night.  Huh?  Got Hotels.com involved and they were able to contact hotel and get the first night cancelled, sent me an email confirmation they were cancelled and the refund was coming.  All good.  Clients went to check in on night of July 25 at 11:30 pm (after working all day at convention center) and were told their rooms were cancelled altogether and that they were sold out.  No manager available to reason with.  Found rooms at two different hotels at a much higher rate because it's very close to Disneyland and it's summer!  Hotels.com calls them again the following day and the hotel manager said the person (their employee) who originally cancelled the first night had no authority to do so.  Oh, and not only that but the clients were charged a no-show fee. I can't even begin to explain what a horrible situation this has been, not to mention my clients want to know where their refund is for the entire...Booked five rooms at this hotel for a show at the Convention Center nearby.  Confirmation states that changes or cancellation must be made by 6:00 pm on July 24th (first night of stay).  Client decided they didn't need the first night on three rooms so I called to cancel first night on July 23rd.  Was told sorry, they were sold out for the remaining nights of the reservation so they would not be able to cancel the first night.  Huh?  Got Hotels.com involved and they were able to contact hotel and get the first night cancelled, sent me an email confirmation they were cancelled and the refund was coming.  All good.  Clients went to check in on night of July 25 at 11:30 pm (after working all day at convention center) and were told their rooms were cancelled altogether and that they were sold out.  No manager available to reason with.  Found rooms at two different hotels at a much higher rate because it's very close to Disneyland and it's summer!  Hotels.com calls them again the following day and the hotel manager said the person (their employee) who originally cancelled the first night had no authority to do so.  Oh, and not only that but the clients were charged a no-show fee. I can't even begin to explain what a horrible situation this has been, not to mention my clients want to know where their refund is for the entire stay.  Hotels.com/Expedia is figuring it out from here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r390227409-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>390227409</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Thank you l</t>
+  </si>
+  <si>
+    <t>I stayed long term at the Extended Stay America in Cypress, CA and was quite impressed with the staff's professionalism, friendliness, hospitality and all their attempts to ensure I had a wonderful stay. I would like to offer a heartfelt thank you to the Asst. Gen. Mngr. Daniela Sanchez, the front office staff...Eddie, Henry, Michelle and Jeremy.....and I can't forget to thank both Antonia (Housekeeping) and Evaristo (Maintenance). Y'all have been so incredible throughout my stay! So once again I'd like to thank you all for making my visit at Extended Stay America in Cypress, CA so wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>I stayed long term at the Extended Stay America in Cypress, CA and was quite impressed with the staff's professionalism, friendliness, hospitality and all their attempts to ensure I had a wonderful stay. I would like to offer a heartfelt thank you to the Asst. Gen. Mngr. Daniela Sanchez, the front office staff...Eddie, Henry, Michelle and Jeremy.....and I can't forget to thank both Antonia (Housekeeping) and Evaristo (Maintenance). Y'all have been so incredible throughout my stay! So once again I'd like to thank you all for making my visit at Extended Stay America in Cypress, CA so wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r381684071-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>381684071</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>I arrived on August 2015 and still here until August 2016.</t>
+  </si>
+  <si>
+    <t>The staff is outstanding always listing and understanding customer needs. they know the area and attractions and how to get there. the cleaning staff maintain the rooms to very high standards. here are a few names that should receive some very high accolade's; Eddie, Michelle, Daniela to mention a few.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>The staff is outstanding always listing and understanding customer needs. they know the area and attractions and how to get there. the cleaning staff maintain the rooms to very high standards. here are a few names that should receive some very high accolade's; Eddie, Michelle, Daniela to mention a few.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r378516399-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>378516399</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family visit </t>
+  </si>
+  <si>
+    <t>Daniela is a exceptional employee over at extended stay. She helped me accommodate an earlier check in time and had my room prepped and ready. All of the utensils were inside my room(you have to request them, don't expect to be in the room). Everyone is friendly and very helpful. You can request daily housekeeping for additional fee. No gym or pool, but why would you want to when there's a beach nearby and you're on vacation! Many main attractions are nearby and easily accessible. Grocery stores and Starbucks are 2 minutes away. There's grab and go breakfast items in the morning. You can even request some after hours. The staff are more than delighted to bring you some. Fresh linen and towels can be exchanged daily at the front desk. The hotel is a little outdated but the standards are kept at a high. Full kitchen just like an apartment. This place is also pet friendly(for additional fee). MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Daniela is a exceptional employee over at extended stay. She helped me accommodate an earlier check in time and had my room prepped and ready. All of the utensils were inside my room(you have to request them, don't expect to be in the room). Everyone is friendly and very helpful. You can request daily housekeeping for additional fee. No gym or pool, but why would you want to when there's a beach nearby and you're on vacation! Many main attractions are nearby and easily accessible. Grocery stores and Starbucks are 2 minutes away. There's grab and go breakfast items in the morning. You can even request some after hours. The staff are more than delighted to bring you some. Fresh linen and towels can be exchanged daily at the front desk. The hotel is a little outdated but the standards are kept at a high. Full kitchen just like an apartment. This place is also pet friendly(for additional fee). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r361657797-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>361657797</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Don't be fooled about "truck parking."</t>
+  </si>
+  <si>
+    <t>Let me first say that the guys at the front desk were excellent. I even saw them go out of their way to get breakfast for people who were late. They were a pleasure. 
+That being said, I stayed here because I was driving a bus and it said there was truck parking. I even called when I made the reservation and asked them at the front desk and they assured me there was. There is not. I told them there was nothing oversized about it nor was there a designated location for a truck or bus. 
+It was very frustrating to me because when I had to leave to take my group of people (Who were staying at another location.) out to dinner, I came back to nowhere to park. There is no parking on the adjacent street and I parked in the business parking lot next door only because I was hoping Sunday morning would not be an issue (There were cars there but not a ton and no one called me to move it or have it towed.).
+That night, I asked Paco about coning off an area since there were enough available parking spaces, but they were all spread out, and what I needed was 5 together. He called his manager, Roger, whom Paco told me said yes. The next day, when I left and returned that evening, I thanked Jeremy profusely for coning the area...Let me first say that the guys at the front desk were excellent. I even saw them go out of their way to get breakfast for people who were late. They were a pleasure. That being said, I stayed here because I was driving a bus and it said there was truck parking. I even called when I made the reservation and asked them at the front desk and they assured me there was. There is not. I told them there was nothing oversized about it nor was there a designated location for a truck or bus. It was very frustrating to me because when I had to leave to take my group of people (Who were staying at another location.) out to dinner, I came back to nowhere to park. There is no parking on the adjacent street and I parked in the business parking lot next door only because I was hoping Sunday morning would not be an issue (There were cars there but not a ton and no one called me to move it or have it towed.).That night, I asked Paco about coning off an area since there were enough available parking spaces, but they were all spread out, and what I needed was 5 together. He called his manager, Roger, whom Paco told me said yes. The next day, when I left and returned that evening, I thanked Jeremy profusely for coning the area off. He then told me that Roger did NOT say they would cone a section off, and that it's first-come, first-served, and yes, they consider it to have truck parking. I wasn't in the mood to play games, so our company will no longer use this location only for that reason. Other than that, I enjoyed my stay &amp; felt that Paco and Jeremy did their best to try to accommodate me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Let me first say that the guys at the front desk were excellent. I even saw them go out of their way to get breakfast for people who were late. They were a pleasure. 
+That being said, I stayed here because I was driving a bus and it said there was truck parking. I even called when I made the reservation and asked them at the front desk and they assured me there was. There is not. I told them there was nothing oversized about it nor was there a designated location for a truck or bus. 
+It was very frustrating to me because when I had to leave to take my group of people (Who were staying at another location.) out to dinner, I came back to nowhere to park. There is no parking on the adjacent street and I parked in the business parking lot next door only because I was hoping Sunday morning would not be an issue (There were cars there but not a ton and no one called me to move it or have it towed.).
+That night, I asked Paco about coning off an area since there were enough available parking spaces, but they were all spread out, and what I needed was 5 together. He called his manager, Roger, whom Paco told me said yes. The next day, when I left and returned that evening, I thanked Jeremy profusely for coning the area...Let me first say that the guys at the front desk were excellent. I even saw them go out of their way to get breakfast for people who were late. They were a pleasure. That being said, I stayed here because I was driving a bus and it said there was truck parking. I even called when I made the reservation and asked them at the front desk and they assured me there was. There is not. I told them there was nothing oversized about it nor was there a designated location for a truck or bus. It was very frustrating to me because when I had to leave to take my group of people (Who were staying at another location.) out to dinner, I came back to nowhere to park. There is no parking on the adjacent street and I parked in the business parking lot next door only because I was hoping Sunday morning would not be an issue (There were cars there but not a ton and no one called me to move it or have it towed.).That night, I asked Paco about coning off an area since there were enough available parking spaces, but they were all spread out, and what I needed was 5 together. He called his manager, Roger, whom Paco told me said yes. The next day, when I left and returned that evening, I thanked Jeremy profusely for coning the area off. He then told me that Roger did NOT say they would cone a section off, and that it's first-come, first-served, and yes, they consider it to have truck parking. I wasn't in the mood to play games, so our company will no longer use this location only for that reason. Other than that, I enjoyed my stay &amp; felt that Paco and Jeremy did their best to try to accommodate me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r352794038-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>352794038</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Quiet Location</t>
+  </si>
+  <si>
+    <t>Perfect location for this night shifterThe property is quietI would recommend a suite for more roomMay I say that the staff spoiled me with things from printing work emails to signing for my packages and making certain I receive them to the storage of my luggage fresh linens towels Roger Henry Daniella Jeremy you all epitomize excellent customer serviceI will always stay at this property when in CypressTHANK YOU!!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r352182561-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>352182561</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>MEH</t>
+  </si>
+  <si>
+    <t>I would rate my stay at the Cypress location "so so".  The building is showing its age, the lobby looks slightly tired, with old carpet and worn out luggage carriers and furnishings.  Front office staff friendly but were not always wearing a name tag.   I had to ask for a "do not disturb" sign for my door but was told they ran out and had to order more.   I had to make my own "do not disturb" note and tape it to my door for the remainder of my stay.      Another complaint is that my room had no shower curtain.  I went to the desk to ask for one, the clerk produced one and asked me, "Do you want me to put it up for you?"  I know this is a bare bones hotel, but of COURSE I did not think I had to hang up my own shower curtain!    My suite was otherwise nice and clean.  My stay at the Cypress location cost more and was not as nice as the Huntington Beach location where I stayed in January, 2016.    I will stay in Huntington Beach from now on when I come to Orange County.MoreShow less</t>
+  </si>
+  <si>
+    <t>I would rate my stay at the Cypress location "so so".  The building is showing its age, the lobby looks slightly tired, with old carpet and worn out luggage carriers and furnishings.  Front office staff friendly but were not always wearing a name tag.   I had to ask for a "do not disturb" sign for my door but was told they ran out and had to order more.   I had to make my own "do not disturb" note and tape it to my door for the remainder of my stay.      Another complaint is that my room had no shower curtain.  I went to the desk to ask for one, the clerk produced one and asked me, "Do you want me to put it up for you?"  I know this is a bare bones hotel, but of COURSE I did not think I had to hang up my own shower curtain!    My suite was otherwise nice and clean.  My stay at the Cypress location cost more and was not as nice as the Huntington Beach location where I stayed in January, 2016.    I will stay in Huntington Beach from now on when I come to Orange County.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r351203389-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>351203389</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Jeremy was working the front desk. He was very friendly and helpful.  There were other people waiting behind us and he made sure to let them know he would be with them shortly. As long as Jeremy works here I will never stay anywhere else in Orange County.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r343344198-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>343344198</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>Made me feel at home!</t>
+  </si>
+  <si>
+    <t>Staff is very nice and helpful they went the extra mile to make us feel comfortable. I love that everything is clean and sanitized great room service. I tell all my friends if ever going to Orange County this is the hotel to stay at! Thanks to the staff and front desk you are a great team!!!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r343025118-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>343025118</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>Booked my room online for a 2 day stay. When I got to the Hotel, my room wasn't available -so my room was downgraded. Most Hotels will upgrade you but not this place. Remember you must request kitchen items for your extended stay visit. Items are only available on request and you'll have to request several times because I never received any of the items described in the advertisement. Not even a coffee maker, cups, utensils etc. Room was nasty. Bathroom cabinets had writings on them from previous guests on the bathroom cabinets. Looks like the found it very depressing there too. The best part is after I rated then unsatisfactory I received a call from the manager who wanted to comp me a free room and requested my address - almost 2 months later I haven't heard back from him or received compensation for my stay. Oh and breakfast was a few of hard muffins and granola bars. Quaker Oatmeal packages with no bowl to put it in. What a joke. Couldn't log into WIFI.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked my room online for a 2 day stay. When I got to the Hotel, my room wasn't available -so my room was downgraded. Most Hotels will upgrade you but not this place. Remember you must request kitchen items for your extended stay visit. Items are only available on request and you'll have to request several times because I never received any of the items described in the advertisement. Not even a coffee maker, cups, utensils etc. Room was nasty. Bathroom cabinets had writings on them from previous guests on the bathroom cabinets. Looks like the found it very depressing there too. The best part is after I rated then unsatisfactory I received a call from the manager who wanted to comp me a free room and requested my address - almost 2 months later I haven't heard back from him or received compensation for my stay. Oh and breakfast was a few of hard muffins and granola bars. Quaker Oatmeal packages with no bowl to put it in. What a joke. Couldn't log into WIFI.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r339063077-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>339063077</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>Great customer service and rooms.</t>
+  </si>
+  <si>
+    <t>It was a wonderful experience at my time at the Extended Stay America. The rooms were clean and tidy and the service itself was even more enjoyable. It always helps to have respectful and courteous employees. One employee at the front desk named Jermy was very funny and friendly and even tried to help us with our bags while we were unloading. Excellent service.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r327434859-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>327434859</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Our Home away from Home</t>
+  </si>
+  <si>
+    <t>We live in the East coast. A family member became sick and we had to extend our stay. The staff is compassionate by helping us through this tough time.  Extended Stay is locate near the skilled nurising faciity and hospital where  family member's plan allows us to receive medical assistance.  Staff goes above and beyond by helping us with the laundry and keeping lines of communication opened with other  family members. Roger the Manager treated us fair.  He is accessible and easy to talk too, Extended Stay America Orange County - Cypress is near Disney Land and other attractions.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r318437517-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>318437517</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>We just were so happy with our room as it was very spacious &amp; clean. Enjoyed the coffee, &amp; goodies provided for breakfast. I would recommend this hotel to anyone. There was even a microwave, refrigerator &amp; 2 burner stove if we wanted to cook. We will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r311491828-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>311491828</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>Great Service and Room</t>
+  </si>
+  <si>
+    <t>Booked this very last minute and after some initial trouble finding the entrance, we checked in and found a very friendly and helpful front desk staff. The room was really nice and clean, and there was a crazy amount of great restaurants and amenities nearby. Wish we had more than 2 nights here as it was one of the nicer places we stayed all trip. Had a full kitchen in the room but no plates, cutlery and cooking stuff so I assume this is more catered to long term stayers. Good fast wifi, would definitely stay again.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r266503412-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>266503412</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Did the job.</t>
+  </si>
+  <si>
+    <t>Located in a nice, quiet area.  Easy check-in with kind staff.  About a 15 minute drive to Disneyland.  About 10 minutes from three different highways.  A couple of things that bothered me was that the bathroom was not as clean as I would have liked, there were stray hairs in the bathtub.  There was some sort of mildew around the inside rim of the toilet.The walls are thin!  So if you have children like how I do either let the staff know to place you far from other guests, or stay away cause then your neighbor will knock on your wall.  I understand that children can be loud, but if I am a paying guest I don't want to feel as though I need to walk around eggshells while we are on vacation.Breakfast? - Think coffee, muffins, and granola bars.Other than those minor things, it did the job.PS- I encountered one rude staff from housekeeping.  As I was on my way to the room, she was parked outside the room and I kindly asked her for one more roll of toilet paper and a towel.  Not a smile came from her and she handed the items to me facing AWAY, it was very rude.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Located in a nice, quiet area.  Easy check-in with kind staff.  About a 15 minute drive to Disneyland.  About 10 minutes from three different highways.  A couple of things that bothered me was that the bathroom was not as clean as I would have liked, there were stray hairs in the bathtub.  There was some sort of mildew around the inside rim of the toilet.The walls are thin!  So if you have children like how I do either let the staff know to place you far from other guests, or stay away cause then your neighbor will knock on your wall.  I understand that children can be loud, but if I am a paying guest I don't want to feel as though I need to walk around eggshells while we are on vacation.Breakfast? - Think coffee, muffins, and granola bars.Other than those minor things, it did the job.PS- I encountered one rude staff from housekeeping.  As I was on my way to the room, she was parked outside the room and I kindly asked her for one more roll of toilet paper and a towel.  Not a smile came from her and she handed the items to me facing AWAY, it was very rude.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r262905898-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>262905898</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Great hotel to stay in.</t>
+  </si>
+  <si>
+    <t>Great and friendly staff. Daniela at the front desk was very helpful and helped us find great activites around the area. She even helped me find my lost necklace. Clean and comfortable rooms. I Would recommend This Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Great and friendly staff. Daniela at the front desk was very helpful and helped us find great activites around the area. She even helped me find my lost necklace. Clean and comfortable rooms. I Would recommend This Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r247236758-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>247236758</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Ok room.....</t>
+  </si>
+  <si>
+    <t>Room was clean. Towels were thread bare and you had to go to front desk to ask for new ones daily. You had to ask for new ones because they were so awful. Bed was awful as well. The floor might have been more comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Room was clean. Towels were thread bare and you had to go to front desk to ask for new ones daily. You had to ask for new ones because they were so awful. Bed was awful as well. The floor might have been more comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r245250194-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>245250194</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>Satisfied Customer</t>
+  </si>
+  <si>
+    <t>The service was excellent and Daniela was very friendly. She was very helpful and answered all of my questions professionally as well as accurately!!! Thank you Daniela for your excellent customer service. I will definitely be returning!!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>The service was excellent and Daniela was very friendly. She was very helpful and answered all of my questions professionally as well as accurately!!! Thank you Daniela for your excellent customer service. I will definitely be returning!!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r243893295-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>243893295</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>Great Experience!!!!!</t>
+  </si>
+  <si>
+    <t>My husband and I were too tired from a trip to drive all the way home so we found this hotel nearby. The check-in process was quick and easy, which we really appreciated. The staff was extremely helpful and very friendly, such a relief after a long day! Price was a great value. Definitely coming back and would recommend to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>My husband and I were too tired from a trip to drive all the way home so we found this hotel nearby. The check-in process was quick and easy, which we really appreciated. The staff was extremely helpful and very friendly, such a relief after a long day! Price was a great value. Definitely coming back and would recommend to family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r237467303-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>237467303</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Sold Timeshare - Where to stay???</t>
+  </si>
+  <si>
+    <t>We recently sold our timeshare and were accustomed to presidential suites?? Now what do we do.  We looked into this hotel after seeing TV commercials, kitchen etc.  At our request, a family member went to check it out, as we wanted to pay in advance (no refund) to get the discounted rate.  We said it doesn't have to be fancy, can't stink and can't be dirty.  So,we made our reservation.  We stayed a little over a week.  There are no bells or whistles.  But, it was clean and spacious, recently renovated, quiet, good lighting in the parking lot (which we appreciated), a grab and go breakfast (we always got our coffee downstairs), fruit, muffins, granola bars, oatmeal.  We had to request items we wanted for our kitchen.  We had one midweek cleaning. We were able to exchange towels as needed.  we were in Cypress to visit with our family and were within 3-5 miles from their home.  Not bad for our first extended stay post timeshare.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>We recently sold our timeshare and were accustomed to presidential suites?? Now what do we do.  We looked into this hotel after seeing TV commercials, kitchen etc.  At our request, a family member went to check it out, as we wanted to pay in advance (no refund) to get the discounted rate.  We said it doesn't have to be fancy, can't stink and can't be dirty.  So,we made our reservation.  We stayed a little over a week.  There are no bells or whistles.  But, it was clean and spacious, recently renovated, quiet, good lighting in the parking lot (which we appreciated), a grab and go breakfast (we always got our coffee downstairs), fruit, muffins, granola bars, oatmeal.  We had to request items we wanted for our kitchen.  We had one midweek cleaning. We were able to exchange towels as needed.  we were in Cypress to visit with our family and were within 3-5 miles from their home.  Not bad for our first extended stay post timeshare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r224192881-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>224192881</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Comfortable, Safe, Great Staff</t>
+  </si>
+  <si>
+    <t>This is an excellent option for anyone looking for a safe and convenient hotel with great amenities, that is close to Los Angeles. The hotel is always clean and comfortable and very well managed. It is in a good neighborhood, with a lot of restaurants, stores, groceries, etc. close by, within walking distance. It is great for professionals who are traveling for business for an extended time. Roger the manager is The Best, highly professional and always helpful. I would recommend and have recommended this hotel to friends. Mary B.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This is an excellent option for anyone looking for a safe and convenient hotel with great amenities, that is close to Los Angeles. The hotel is always clean and comfortable and very well managed. It is in a good neighborhood, with a lot of restaurants, stores, groceries, etc. close by, within walking distance. It is great for professionals who are traveling for business for an extended time. Roger the manager is The Best, highly professional and always helpful. I would recommend and have recommended this hotel to friends. Mary B.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r214982744-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>214982744</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>No customer service.</t>
+  </si>
+  <si>
+    <t>Room was freshly painted, carpets dirty and stained. Not enough staff at front desk and no one there before 7am. I waited in a line every night to speak with the attendant at the front desk. If he was on the phone he did not acknowledge those waiting to speak to him. Staff not trained in  customer service. I won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Room was freshly painted, carpets dirty and stained. Not enough staff at front desk and no one there before 7am. I waited in a line every night to speak with the attendant at the front desk. If he was on the phone he did not acknowledge those waiting to speak to him. Staff not trained in  customer service. I won't be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r214566480-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>214566480</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Disgusting!!!</t>
+  </si>
+  <si>
+    <t>I checked in around 6pm. I was first given a room that did not have any bedding on the bed. Then I was switched to another room and left for a basketball tournament, did not return until around 1am. When I pulled back the first blanket, the next blanket was full of someone long hair. The whole blanket was covered with it. Then I pulled back the sheet and there were several lang strands on the sheets as well. Disgusting! Also in the bathroom, one of the face towels was dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I checked in around 6pm. I was first given a room that did not have any bedding on the bed. Then I was switched to another room and left for a basketball tournament, did not return until around 1am. When I pulled back the first blanket, the next blanket was full of someone long hair. The whole blanket was covered with it. Then I pulled back the sheet and there were several lang strands on the sheets as well. Disgusting! Also in the bathroom, one of the face towels was dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r212507564-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>212507564</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>It's not what I would call 'extended stay' any longer than about 3 days.  Perhaps my business trips are longer than most, being about 10 days on average and that's why I find errors.  It's as if they don't understand what's expected on an extended stay.  Their version of it seems to be a total Hands-Off approach.  Perhaps I my expectations are simply too high.  I expect for the price, this room to be clean and functioning, (all gadgets/fixtures function), room keys that work for my entire stay, a normal weekly refreshing of linens,a decent number of coffee packets (it's extended stay for a reason- why they only provide only 1 is odd), a channel guide, all kitchenette utensils present.  Obviously I don't expect anyone to do my dishes.  I don't expect someone to do my personal laundry.  
+After staying just twice, it seems there is always something missing.  The first 10 day stay, there were no wash clothes, no knife and no paper towels.  The second 10 day stay, still no paper towels (obviously those aren't provided), the clock doesn't work, the phone doesn't have the right extension on it, the bath is stuck in shower mode.  There just always seems to be something not quite right.  Don't count on finding any sort of channel guide.  The 'free' wireless speeds are about as fast as dial-up but hey you get what you pay for. Key quit working on the...It's not what I would call 'extended stay' any longer than about 3 days.  Perhaps my business trips are longer than most, being about 10 days on average and that's why I find errors.  It's as if they don't understand what's expected on an extended stay.  Their version of it seems to be a total Hands-Off approach.  Perhaps I my expectations are simply too high.  I expect for the price, this room to be clean and functioning, (all gadgets/fixtures function), room keys that work for my entire stay, a normal weekly refreshing of linens,a decent number of coffee packets (it's extended stay for a reason- why they only provide only 1 is odd), a channel guide, all kitchenette utensils present.  Obviously I don't expect anyone to do my dishes.  I don't expect someone to do my personal laundry.  After staying just twice, it seems there is always something missing.  The first 10 day stay, there were no wash clothes, no knife and no paper towels.  The second 10 day stay, still no paper towels (obviously those aren't provided), the clock doesn't work, the phone doesn't have the right extension on it, the bath is stuck in shower mode.  There just always seems to be something not quite right.  Don't count on finding any sort of channel guide.  The 'free' wireless speeds are about as fast as dial-up but hey you get what you pay for. Key quit working on the 5th day.  A better organized operating procedure seems to be needed.  For example, if they knew ahead of time the room was booked for 2 weeks, they could have the room actually ready for a 2-week stay.  They would do fresh linens every 7 days, they would make sure all the amenities actually worked BEFORE someone walked in the room.  I've read such good reviews from people only staying a short time, so I can only assume that those booked into extended stay rooms are left in a black-hole somewhere until they check out.  Still the beds are comfortable.  The AC works well.  It's quiet. Things are relatively clean.  There is easy access to grocery stores and things to do.  The staff is courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>It's not what I would call 'extended stay' any longer than about 3 days.  Perhaps my business trips are longer than most, being about 10 days on average and that's why I find errors.  It's as if they don't understand what's expected on an extended stay.  Their version of it seems to be a total Hands-Off approach.  Perhaps I my expectations are simply too high.  I expect for the price, this room to be clean and functioning, (all gadgets/fixtures function), room keys that work for my entire stay, a normal weekly refreshing of linens,a decent number of coffee packets (it's extended stay for a reason- why they only provide only 1 is odd), a channel guide, all kitchenette utensils present.  Obviously I don't expect anyone to do my dishes.  I don't expect someone to do my personal laundry.  
+After staying just twice, it seems there is always something missing.  The first 10 day stay, there were no wash clothes, no knife and no paper towels.  The second 10 day stay, still no paper towels (obviously those aren't provided), the clock doesn't work, the phone doesn't have the right extension on it, the bath is stuck in shower mode.  There just always seems to be something not quite right.  Don't count on finding any sort of channel guide.  The 'free' wireless speeds are about as fast as dial-up but hey you get what you pay for. Key quit working on the...It's not what I would call 'extended stay' any longer than about 3 days.  Perhaps my business trips are longer than most, being about 10 days on average and that's why I find errors.  It's as if they don't understand what's expected on an extended stay.  Their version of it seems to be a total Hands-Off approach.  Perhaps I my expectations are simply too high.  I expect for the price, this room to be clean and functioning, (all gadgets/fixtures function), room keys that work for my entire stay, a normal weekly refreshing of linens,a decent number of coffee packets (it's extended stay for a reason- why they only provide only 1 is odd), a channel guide, all kitchenette utensils present.  Obviously I don't expect anyone to do my dishes.  I don't expect someone to do my personal laundry.  After staying just twice, it seems there is always something missing.  The first 10 day stay, there were no wash clothes, no knife and no paper towels.  The second 10 day stay, still no paper towels (obviously those aren't provided), the clock doesn't work, the phone doesn't have the right extension on it, the bath is stuck in shower mode.  There just always seems to be something not quite right.  Don't count on finding any sort of channel guide.  The 'free' wireless speeds are about as fast as dial-up but hey you get what you pay for. Key quit working on the 5th day.  A better organized operating procedure seems to be needed.  For example, if they knew ahead of time the room was booked for 2 weeks, they could have the room actually ready for a 2-week stay.  They would do fresh linens every 7 days, they would make sure all the amenities actually worked BEFORE someone walked in the room.  I've read such good reviews from people only staying a short time, so I can only assume that those booked into extended stay rooms are left in a black-hole somewhere until they check out.  Still the beds are comfortable.  The AC works well.  It's quiet. Things are relatively clean.  There is easy access to grocery stores and things to do.  The staff is courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r212043512-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>212043512</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Okay for an economy stay</t>
+  </si>
+  <si>
+    <t>I stayed overnight in Cypress, since I didn't want to return home late at night from an event.  The hotel is just "okay"  .  Everything is economy....  and, it's a matter of getting what you pay for.  The rooms are clean and that's about it.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r211618308-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>211618308</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>“Comfortable, Convenient, Good Value”</t>
+  </si>
+  <si>
+    <t>Staff very helpful and welcoming. Rooms with fresh decor; bed comfortable. Fridge and mini kitchen helpful. For the value conscious traveler, this is a great buy! They make you feel very welcome and provide very good service. Terrific location -- close to freeways, shopping and great restaurants in the immediate vicinity. They even give you a free breakfast. Love this place, the staff is great and the premises are clean. Roger/Manager is AWESOME very professional, Thank you Roger.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r194642081-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>194642081</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>Better Than I Expected</t>
+  </si>
+  <si>
+    <t>For a long term stay, this is ideal.  I was concerned with some of the reviews with regards to the facilities but pleasantly surprised.  I noticed how good my room smelled when I entered, Minus one burner that wasn't working, everything else was in working order.  Love the full size fridge.  I wasn't a huge fan of the pillows, they seemed to be the cheap kind (and one smelled like old man - ick).Internet was decent.  There is an option to purchase high speed, I didn't need it for light work and my iPhone.I would stay here again if I needed a long-term stay with a fridge and kitchen.  The room I stayed is was small, but it was just me and I was in the room pretty much for sleeping.  Within walking distance, there were a few restaurants (Subway, Fish Market, I think a Thai restaurant, etc.).  Within driving distance, plenty of grocery stores and restaurant options.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2014</t>
+  </si>
+  <si>
+    <t>For a long term stay, this is ideal.  I was concerned with some of the reviews with regards to the facilities but pleasantly surprised.  I noticed how good my room smelled when I entered, Minus one burner that wasn't working, everything else was in working order.  Love the full size fridge.  I wasn't a huge fan of the pillows, they seemed to be the cheap kind (and one smelled like old man - ick).Internet was decent.  There is an option to purchase high speed, I didn't need it for light work and my iPhone.I would stay here again if I needed a long-term stay with a fridge and kitchen.  The room I stayed is was small, but it was just me and I was in the room pretty much for sleeping.  Within walking distance, there were a few restaurants (Subway, Fish Market, I think a Thai restaurant, etc.).  Within driving distance, plenty of grocery stores and restaurant options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r193992363-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>193992363</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>Great price for a comfortable stay.</t>
+  </si>
+  <si>
+    <t>My stay at this hotel has been fantastic. Location is perfect. Very clean rooms. The kitchen is such a plus and a very big part of why I chose this hotel. Makes it feel more like a studio apartment rather than a hotel . Thanks again for a great stay at  Extended Stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r192357393-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>192357393</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>Awful place to stay</t>
+  </si>
+  <si>
+    <t>Lobby small.  People basic.  Rooms ok.  There were cockroaches in our bathroom and kitchen.  Nothing was done about it when we reported it.  they didn't even offer to give us another room.  They have no maid service unless you stay over seven days.  they give you basics.  if you need more toilet paper or paper towels , you have to ask for it in the lobby. And they don't have a pool or other types of facilities for children.  very boring.  They had one table outside and one BBQ pit for the entire hotel.  We were here with our basketball team for a tournament.  Cancelled our upcoming reservations and will never stay at one of these hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Lobby small.  People basic.  Rooms ok.  There were cockroaches in our bathroom and kitchen.  Nothing was done about it when we reported it.  they didn't even offer to give us another room.  They have no maid service unless you stay over seven days.  they give you basics.  if you need more toilet paper or paper towels , you have to ask for it in the lobby. And they don't have a pool or other types of facilities for children.  very boring.  They had one table outside and one BBQ pit for the entire hotel.  We were here with our basketball team for a tournament.  Cancelled our upcoming reservations and will never stay at one of these hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r183855381-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>183855381</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>bugs and continental breakfast?</t>
+  </si>
+  <si>
+    <t>room 140.  opened the door and a roach ran across the counter. i caught it and took it to the front desk and he offered to change the room. i declined because we had just drug our stuff in and we were super tired. i said i better not see another one but his friend showed up the next morning on the wall behind the tv.any place with a kitchen might have bugs. i told the manager to spray or something while we were gone , said they would but did not get back to me or offer any real apology. missing light bulb,missing spoons, missing tv guide and only coffee and hot water for oatmeal plus some fruit and granola bars for breakfast. really poor for $90. a night however the bed was great. the tv control would only move the volume 1 step at a time slowly. that was really bad when the next channel was loud.wifi was full of ad's. and kind of slowMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>room 140.  opened the door and a roach ran across the counter. i caught it and took it to the front desk and he offered to change the room. i declined because we had just drug our stuff in and we were super tired. i said i better not see another one but his friend showed up the next morning on the wall behind the tv.any place with a kitchen might have bugs. i told the manager to spray or something while we were gone , said they would but did not get back to me or offer any real apology. missing light bulb,missing spoons, missing tv guide and only coffee and hot water for oatmeal plus some fruit and granola bars for breakfast. really poor for $90. a night however the bed was great. the tv control would only move the volume 1 step at a time slowly. that was really bad when the next channel was loud.wifi was full of ad's. and kind of slowMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r181109182-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>181109182</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Great place for extended stay</t>
+  </si>
+  <si>
+    <t>I liked every aspect of my room, from the kitchenette to the queen size bed and soft pillows. The staff are friendly and ready to listen. The hotel is strategically located near shopping malls and restaurants. Extended stay is an ideal place for those on extended business trips due to the facilities offered. If you love cooking rather than eating out, this is the hotel. On the downside, the hotel does not provide shuttle services to LAX. The air conditioner in my room was loud that I had to switch it off and sweat it out...skip the breakfast if you can, nothing much on offer except muffin, coffee, instant oat porridge and apples!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I liked every aspect of my room, from the kitchenette to the queen size bed and soft pillows. The staff are friendly and ready to listen. The hotel is strategically located near shopping malls and restaurants. Extended stay is an ideal place for those on extended business trips due to the facilities offered. If you love cooking rather than eating out, this is the hotel. On the downside, the hotel does not provide shuttle services to LAX. The air conditioner in my room was loud that I had to switch it off and sweat it out...skip the breakfast if you can, nothing much on offer except muffin, coffee, instant oat porridge and apples!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r179646978-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>179646978</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>Clean, quite &amp; good service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for 3 nights. The only thing bad about my stay was the phone didn't work on the 1st night. But they fixed it next day.  Other than that my stay here was great. Good staff! I would suggest if you stay here is make sure you have a vehicle. Because local transit here is no good. </t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r175809247-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>175809247</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Clean comfortable room</t>
+  </si>
+  <si>
+    <t>The room was spacious, clean, and comfortable.  However, the location is too far from where we want to go and since we booked it last minute i was pricey for the room we got.  The service was good too. I will definitely stay here again if i come back to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded September 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2013</t>
+  </si>
+  <si>
+    <t>The room was spacious, clean, and comfortable.  However, the location is too far from where we want to go and since we booked it last minute i was pricey for the room we got.  The service was good too. I will definitely stay here again if i come back to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r173081275-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>173081275</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>This place did not change the bedding!  Found large bugger on blanket, dirty sheets and pillowcases.  Absolutely gross! Halls, and rooms have a very strong cigarette odor. Opened window for fresh air, and noticed no screens! In addition, the bathroom was not wiped down or anything. Made a toilet seat cover our of T.P. Checked out the next day and checked into the Marriott down the street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r172220641-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>172220641</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Second time was the pits!</t>
+  </si>
+  <si>
+    <t>I gave this place a second chance. The first morning I took my shower the drain was so stopped up the water would not drain. I had to clean it out to get the water to drain and it was DISGUSTING! I don't think it had been cleaned in months! It was so noisy I got very little sleep. NEVER AGAIN! I was offered a free night on my next visit but, I do not think it will be worth it.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r166828264-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>166828264</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Roomy and quiet</t>
+  </si>
+  <si>
+    <t>The hotel is not fancy, but it is a clean hotel. 
+I needed a place to stay where I could have my cats as I was transitioning to a new place to live. They allowed my cats to come with me. There was a large bed, a sofa, a bar type dining table, a kitchenette and a large bathroom. 
+The laundry room was huge. There were several washers and dryers, change was made at the front desk. They had soap for sale also. The laundry room was clean, but not spotless, it was a little run down, but everything worked. The fitness room was small but clean. 
+Breakfast was coffee, tea, muffins, oatmeal and apples/oranges. Not fancy, and served in the lobby to be taken back to your room to eat. 
+ I was in a daze the week I spent there, having moved in a hurry into the hotel. My mother had died the day I moved into room, and I spent the week planning the funeral. I was glad to have a quiet place to relax and try to regroup my thoughts. Being able to have my cats with me was a bonus instead of having to board them. They seemed to like looking out the window and snuggle on the bed with me. There was a small fee charged to have the cats and I was only supposed to have one pet, but I did tell the front...The hotel is not fancy, but it is a clean hotel. I needed a place to stay where I could have my cats as I was transitioning to a new place to live. They allowed my cats to come with me. There was a large bed, a sofa, a bar type dining table, a kitchenette and a large bathroom. The laundry room was huge. There were several washers and dryers, change was made at the front desk. They had soap for sale also. The laundry room was clean, but not spotless, it was a little run down, but everything worked. The fitness room was small but clean. Breakfast was coffee, tea, muffins, oatmeal and apples/oranges. Not fancy, and served in the lobby to be taken back to your room to eat.  I was in a daze the week I spent there, having moved in a hurry into the hotel. My mother had died the day I moved into room, and I spent the week planning the funeral. I was glad to have a quiet place to relax and try to regroup my thoughts. Being able to have my cats with me was a bonus instead of having to board them. They seemed to like looking out the window and snuggle on the bed with me. There was a small fee charged to have the cats and I was only supposed to have one pet, but I did tell the front desk I had both of them. Front desk staff was friendly but did not seem to want to go out of their way to be social. This was all right, but a change from other more upper end hotels where the front desk staff tends to be more chatty, genuinely caring about their clients.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>The hotel is not fancy, but it is a clean hotel. 
+I needed a place to stay where I could have my cats as I was transitioning to a new place to live. They allowed my cats to come with me. There was a large bed, a sofa, a bar type dining table, a kitchenette and a large bathroom. 
+The laundry room was huge. There were several washers and dryers, change was made at the front desk. They had soap for sale also. The laundry room was clean, but not spotless, it was a little run down, but everything worked. The fitness room was small but clean. 
+Breakfast was coffee, tea, muffins, oatmeal and apples/oranges. Not fancy, and served in the lobby to be taken back to your room to eat. 
+ I was in a daze the week I spent there, having moved in a hurry into the hotel. My mother had died the day I moved into room, and I spent the week planning the funeral. I was glad to have a quiet place to relax and try to regroup my thoughts. Being able to have my cats with me was a bonus instead of having to board them. They seemed to like looking out the window and snuggle on the bed with me. There was a small fee charged to have the cats and I was only supposed to have one pet, but I did tell the front...The hotel is not fancy, but it is a clean hotel. I needed a place to stay where I could have my cats as I was transitioning to a new place to live. They allowed my cats to come with me. There was a large bed, a sofa, a bar type dining table, a kitchenette and a large bathroom. The laundry room was huge. There were several washers and dryers, change was made at the front desk. They had soap for sale also. The laundry room was clean, but not spotless, it was a little run down, but everything worked. The fitness room was small but clean. Breakfast was coffee, tea, muffins, oatmeal and apples/oranges. Not fancy, and served in the lobby to be taken back to your room to eat.  I was in a daze the week I spent there, having moved in a hurry into the hotel. My mother had died the day I moved into room, and I spent the week planning the funeral. I was glad to have a quiet place to relax and try to regroup my thoughts. Being able to have my cats with me was a bonus instead of having to board them. They seemed to like looking out the window and snuggle on the bed with me. There was a small fee charged to have the cats and I was only supposed to have one pet, but I did tell the front desk I had both of them. Front desk staff was friendly but did not seem to want to go out of their way to be social. This was all right, but a change from other more upper end hotels where the front desk staff tends to be more chatty, genuinely caring about their clients.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r160263831-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>160263831</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights here. Smelly in the hallway. Noisy from the workers until about 6:30 PM. Paint peeling on the windowsill. Pipe noise from other guest(s) when they turned the water on. Bed was comfortable though. Limited TV channels. Bad connection on the cable coax. Had to keep jiggling the cable. Great shower. Will probably stay here again....after the renovation is completed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights here. Smelly in the hallway. Noisy from the workers until about 6:30 PM. Paint peeling on the windowsill. Pipe noise from other guest(s) when they turned the water on. Bed was comfortable though. Limited TV channels. Bad connection on the cable coax. Had to keep jiggling the cable. Great shower. Will probably stay here again....after the renovation is completed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r159564025-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>159564025</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>stay at the Cypress location</t>
+  </si>
+  <si>
+    <t>the hotel at the Cypress location was just ok. the queen beds were fairly new, the room comes with a mini kitchen with 2 bar stools so you can cook your food, warm staff and location was great.  however, the management of this hotel can improve the quality of their rooms as the one that we were in, was quite a bit dusty, blankets have holes and the door knob at the bathroom was broken.  the rate per night is over kill for the quality of what you get and i think you can pay the same rate at a different more spic and span small hotels in the nearby area of Cypress or even Anaheim.  overall, if you have time to complain perhaps they will fix the imperfections i noted, but then again, those things i mentioned should be basic comforts if you're paying for almost 100/night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>the hotel at the Cypress location was just ok. the queen beds were fairly new, the room comes with a mini kitchen with 2 bar stools so you can cook your food, warm staff and location was great.  however, the management of this hotel can improve the quality of their rooms as the one that we were in, was quite a bit dusty, blankets have holes and the door knob at the bathroom was broken.  the rate per night is over kill for the quality of what you get and i think you can pay the same rate at a different more spic and span small hotels in the nearby area of Cypress or even Anaheim.  overall, if you have time to complain perhaps they will fix the imperfections i noted, but then again, those things i mentioned should be basic comforts if you're paying for almost 100/night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r156280093-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>156280093</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>pleasantly, warm vibes with an attitude of caring.</t>
+  </si>
+  <si>
+    <t>I was there for a few months. Started as in between places stay. But the made so comfortable I stayed longer. The front desk was so positive and helpful. Carmen is sweet but funny, i for get the new guys name but hes cool, and Brandon is a PRO! Brandon always know an  answer and is very helpful. The room was nice, TV , kitchen, clean bathroom and more.. If ur looking for hotel for a stay of week or more and want it have have home like feel. Then these is the place. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded April 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2013</t>
+  </si>
+  <si>
+    <t>I was there for a few months. Started as in between places stay. But the made so comfortable I stayed longer. The front desk was so positive and helpful. Carmen is sweet but funny, i for get the new guys name but hes cool, and Brandon is a PRO! Brandon always know an  answer and is very helpful. The room was nice, TV , kitchen, clean bathroom and more.. If ur looking for hotel for a stay of week or more and want it have have home like feel. Then these is the place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r154955280-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>154955280</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>This hotel is well-positioned as the service at the front desk is outstanding. I've been happy with everyone there and especially Carmen who went out of her way on several occasions. She is sweet, kind, hard-working and professional.While this budget hotel is not a four-star hotel in terms of amenities or the facility but it's a 10-star in terms of service.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is well-positioned as the service at the front desk is outstanding. I've been happy with everyone there and especially Carmen who went out of her way on several occasions. She is sweet, kind, hard-working and professional.While this budget hotel is not a four-star hotel in terms of amenities or the facility but it's a 10-star in terms of service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r151499929-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>151499929</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL, AND SERVICE</t>
+  </si>
+  <si>
+    <t>Extended Stay in Cypress is a great place to stay... clean rooms, very friendly staff that goes out of their way to help or assist.... Carlos, the manager, very professional and friendly along with Sadie and Bryan and the other nice people... the rooms are always cleaned and neat, flat screen tv, .... great place whether for a weekend or long trip...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded February 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2013</t>
+  </si>
+  <si>
+    <t>Extended Stay in Cypress is a great place to stay... clean rooms, very friendly staff that goes out of their way to help or assist.... Carlos, the manager, very professional and friendly along with Sadie and Bryan and the other nice people... the rooms are always cleaned and neat, flat screen tv, .... great place whether for a weekend or long trip...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r149893263-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>149893263</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>We had reservations booked through a travel site &amp; our reservation transmitted incorrectly.  We called the travel site as soon as the reservation confirmation was received &amp; we were assured that our room would accommodate our entire party.  When we got to the hotel after a day spent at an amusement park to check in we found out that the room we were booked in to would not accommodate our party.  Bryan &amp; Carmen the employees working that night went out of their way to try to accommodate us in to another room since they were sold out with it being a holiday weekend.  While we were on the phone with the travel site dealing with the error Bryan &amp; Carmen continued to try to assist us in finding accommodations that would work for us by providing us the names &amp; phone numbers of nearby hotels so that we could see if we could find other accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded January 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2013</t>
+  </si>
+  <si>
+    <t>We had reservations booked through a travel site &amp; our reservation transmitted incorrectly.  We called the travel site as soon as the reservation confirmation was received &amp; we were assured that our room would accommodate our entire party.  When we got to the hotel after a day spent at an amusement park to check in we found out that the room we were booked in to would not accommodate our party.  Bryan &amp; Carmen the employees working that night went out of their way to try to accommodate us in to another room since they were sold out with it being a holiday weekend.  While we were on the phone with the travel site dealing with the error Bryan &amp; Carmen continued to try to assist us in finding accommodations that would work for us by providing us the names &amp; phone numbers of nearby hotels so that we could see if we could find other accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r148221394-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>148221394</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Feels Like Home</t>
+  </si>
+  <si>
+    <t>I travel a lot and i stay at a lot of hotels a friend of mine recommended me to try this one and I'm so happy that I did try this hotel the customer service and people where excellent so helpful made me feel real comfortable the kitchen was a big plus for me I love to cook at other hotels that  stayed at they did not have a kitchen area that made my stay at Extended Stay a real good experience the room gave me that home feeling which is always good when you feel at home my time here at Extended Stay was a good one me and my family are planning a vacation most definitely we will be staying at Extended StayMoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded December 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2012</t>
+  </si>
+  <si>
+    <t>I travel a lot and i stay at a lot of hotels a friend of mine recommended me to try this one and I'm so happy that I did try this hotel the customer service and people where excellent so helpful made me feel real comfortable the kitchen was a big plus for me I love to cook at other hotels that  stayed at they did not have a kitchen area that made my stay at Extended Stay a real good experience the room gave me that home feeling which is always good when you feel at home my time here at Extended Stay was a good one me and my family are planning a vacation most definitely we will be staying at Extended StayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r148214037-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>148214037</t>
+  </si>
+  <si>
+    <t>Great staff but not so great hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights.. First the positives : The check-in process was quick and easy, There were luggage carts in the lobby to use, The staff were helpful and friendly, The hotel is situated just a few miles away from Disneyland and major freeways, The wireless internet connectivity was good enough, The room had a kitchen, microwave and refrigerator. Now for the bad parts : The carpets are very old and had a strange smell(though not unbearable) - it might be from overuse of air freshener, There is no housekeeping if you stay less than 7 days, which is a very huge inconvenience, You have to make several trips to the lobby for little things like towels, soaps etc, The breakfast offered is ridiculous - its pretty much coffee and some old muffins. Overall, it depends on what your priorities are and how long you stay. Bryan at the front desk was very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights.. First the positives : The check-in process was quick and easy, There were luggage carts in the lobby to use, The staff were helpful and friendly, The hotel is situated just a few miles away from Disneyland and major freeways, The wireless internet connectivity was good enough, The room had a kitchen, microwave and refrigerator. Now for the bad parts : The carpets are very old and had a strange smell(though not unbearable) - it might be from overuse of air freshener, There is no housekeeping if you stay less than 7 days, which is a very huge inconvenience, You have to make several trips to the lobby for little things like towels, soaps etc, The breakfast offered is ridiculous - its pretty much coffee and some old muffins. Overall, it depends on what your priorities are and how long you stay. Bryan at the front desk was very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r144678941-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>144678941</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Decent budget hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for a night in Sep on business. I chose this hotel to stay with my other colleagues and to the close proximity to work. This is a OK hotel for just one overnight stay. They do offer a grab and go breakfast (just the usual granola bars and muffins). The refrigerator in the hotel did not work and the door also did not close properly. the property seem quite old and guess it is upgraded recently.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded November 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for a night in Sep on business. I chose this hotel to stay with my other colleagues and to the close proximity to work. This is a OK hotel for just one overnight stay. They do offer a grab and go breakfast (just the usual granola bars and muffins). The refrigerator in the hotel did not work and the door also did not close properly. the property seem quite old and guess it is upgraded recently.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r144426501-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>144426501</t>
+  </si>
+  <si>
+    <t>11/03/2012</t>
+  </si>
+  <si>
+    <t>My First Stay At An Extended Stay America</t>
+  </si>
+  <si>
+    <t>Up until my recent trip to CA I had never stayed at an Extended Stay America before. While it wasn't the Ritz Carlton or the Four Seasons, it was one of the most comfortable hotel experiences I've had in quite some time. The staff was friendly and helpful. The amenities in the room were perfect for and extended stay away from home. For work, I used to travel all over the US for 13 years and have stayed at a lot of hotels. I wish places like this would have been around back then. In the future I will (whenever possible) stay at an Extended Stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Up until my recent trip to CA I had never stayed at an Extended Stay America before. While it wasn't the Ritz Carlton or the Four Seasons, it was one of the most comfortable hotel experiences I've had in quite some time. The staff was friendly and helpful. The amenities in the room were perfect for and extended stay away from home. For work, I used to travel all over the US for 13 years and have stayed at a lot of hotels. I wish places like this would have been around back then. In the future I will (whenever possible) stay at an Extended Stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r143813518-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>143813518</t>
+  </si>
+  <si>
+    <t>10/26/2012</t>
+  </si>
+  <si>
+    <t>Safe stay with in reasonable price</t>
+  </si>
+  <si>
+    <t>It is always better to look for safty rather luxury, I feel.  I happen to stay in this hotel nearly 12 weeks.  During my stay I do not find any problem or diffuculty.  Front desk team is very nice and I say very good staff members been appointed.  They greet very guest and hearthful smile and greet make us feel we are not away from family members.  As a woman staying alone in hotel I always look for safe stay, it is 200% suggestable place I can say.  Good house keeping.  Reasonable price, safe stay with clean &amp; healthy location.   Yet I would like to say there is a little scope for further improvement like smoke detectorMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded October 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2012</t>
+  </si>
+  <si>
+    <t>It is always better to look for safty rather luxury, I feel.  I happen to stay in this hotel nearly 12 weeks.  During my stay I do not find any problem or diffuculty.  Front desk team is very nice and I say very good staff members been appointed.  They greet very guest and hearthful smile and greet make us feel we are not away from family members.  As a woman staying alone in hotel I always look for safe stay, it is 200% suggestable place I can say.  Good house keeping.  Reasonable price, safe stay with clean &amp; healthy location.   Yet I would like to say there is a little scope for further improvement like smoke detectorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r139113458-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>139113458</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>Wonderful staff accommodated my requests</t>
+  </si>
+  <si>
+    <t>I chose the hotel for a 2-night stay because of my house getting tented for termites.  Their pet policy made it easy for me to bring our cat instead of taking him to a boarder.  The front desk clerk (Sadie) was very flexible and accommodating to me and my wife in getting the cat into the room earlier than the published check-in time.  This reduces a significant amount of stress for me.  I was able to get completely moved in within a couple of hours earlier than I could have been required to do.  Thank you Sadie and Extended Stay America Cypress!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded September 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2012</t>
+  </si>
+  <si>
+    <t>I chose the hotel for a 2-night stay because of my house getting tented for termites.  Their pet policy made it easy for me to bring our cat instead of taking him to a boarder.  The front desk clerk (Sadie) was very flexible and accommodating to me and my wife in getting the cat into the room earlier than the published check-in time.  This reduces a significant amount of stress for me.  I was able to get completely moved in within a couple of hours earlier than I could have been required to do.  Thank you Sadie and Extended Stay America Cypress!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r138108294-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>138108294</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>Should of said repainted not renovated</t>
+  </si>
+  <si>
+    <t>Once inside doors the carpets looked old, battered, worn, old style, smelt. Each floor looked like it had different color carpet flooring. The smell on each floor wasn’t clean smelling or even looked clean smelled musty and stale. The first room I got was not clean 355. I walked in it looked clean, but could tell and smell it wasnt recently cleaned. The sheets had a scent to them, bed was hard and not comfortable, bathoom was not clean. THe room had a smell of old ant spray and dog dandur. If the room was rented to a person with an animal you cant rent it another person within the same year that doesnt bring a pet without shampooing the floor.The ventilation should be througout the floor on each floor with several intakes fans and outs. I went to each floor after my first room to check the floors and saw the same poor circulation and smells varied. They didnt have any cartoon or children stations available for viewing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Once inside doors the carpets looked old, battered, worn, old style, smelt. Each floor looked like it had different color carpet flooring. The smell on each floor wasn’t clean smelling or even looked clean smelled musty and stale. The first room I got was not clean 355. I walked in it looked clean, but could tell and smell it wasnt recently cleaned. The sheets had a scent to them, bed was hard and not comfortable, bathoom was not clean. THe room had a smell of old ant spray and dog dandur. If the room was rented to a person with an animal you cant rent it another person within the same year that doesnt bring a pet without shampooing the floor.The ventilation should be througout the floor on each floor with several intakes fans and outs. I went to each floor after my first room to check the floors and saw the same poor circulation and smells varied. They didnt have any cartoon or children stations available for viewing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r136674989-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>136674989</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>Concrete bed.</t>
+  </si>
+  <si>
+    <t>We arrived at 10:30pm greatest very nicely. When we got up into our room I was excited to see that it was fairly large and indeed had a king size bed. After getting settled in. And taking a shower in a half swept half wiped down bathroom. I got ready to lay in bed. The first thing my wife and I noticed was that the bed felt SO hard. My wife even said its okay honey I'll just sleep on the FLOOR!!! to which I replied no. We asked for two extra comforters to create some sort of comfort! I did not go to sleep until about 3am. My wife tossed and turned all night long. During the time I was trying to sleep on this bed I looked at multiple hotels that were close by. All in all I should have spent the extra money to stay at the Marriott down the street like we typically do. The next day I hear my wife say eew!!! There is a bug on the counter. I didn have the rare to tell her it was a small COCKROACH!!!! Horrible hotel. I WILL NOT be staying here ever again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2012</t>
+  </si>
+  <si>
+    <t>We arrived at 10:30pm greatest very nicely. When we got up into our room I was excited to see that it was fairly large and indeed had a king size bed. After getting settled in. And taking a shower in a half swept half wiped down bathroom. I got ready to lay in bed. The first thing my wife and I noticed was that the bed felt SO hard. My wife even said its okay honey I'll just sleep on the FLOOR!!! to which I replied no. We asked for two extra comforters to create some sort of comfort! I did not go to sleep until about 3am. My wife tossed and turned all night long. During the time I was trying to sleep on this bed I looked at multiple hotels that were close by. All in all I should have spent the extra money to stay at the Marriott down the street like we typically do. The next day I hear my wife say eew!!! There is a bug on the counter. I didn have the rare to tell her it was a small COCKROACH!!!! Horrible hotel. I WILL NOT be staying here ever again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r130535408-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>130535408</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>GREAT FOR BUSINESS</t>
+  </si>
+  <si>
+    <t>Needed for business trip; early morning meeting on following day of stay and worked very well and very convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Orange County - Cypress, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Needed for business trip; early morning meeting on following day of stay and worked very well and very convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r129257677-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>129257677</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>Great But Hard To Find</t>
+  </si>
+  <si>
+    <t>Needed a good, clean and affordable hotel and that's what I got.  It's clean, rates are great and experience was great.  I needed information in the a.m., hours, went to the front desk and they led me in right direction for a place to each.  Only thing is that the hotel is not directly off a major road or at least noticable and that made locating a bit tricky.  Once you get there it's not a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Needed a good, clean and affordable hotel and that's what I got.  It's clean, rates are great and experience was great.  I needed information in the a.m., hours, went to the front desk and they led me in right direction for a place to each.  Only thing is that the hotel is not directly off a major road or at least noticable and that made locating a bit tricky.  Once you get there it's not a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r129069542-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>129069542</t>
+  </si>
+  <si>
+    <t>04/29/2012</t>
+  </si>
+  <si>
+    <t>A lot left to be desired</t>
+  </si>
+  <si>
+    <t>The room smelled musty and old.  Room, especially bathroom were dirty.  The hotel was out of soap, so we had to go out to buy our own.  Stove was dirty and rusted, so we didn't feel comfortable using it.  Beds were old and uncomfortable.  We needed synthetic pillows due to allergies to down, but none were available.  After 2 days we cancelled the rest of our week long stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The room smelled musty and old.  Room, especially bathroom were dirty.  The hotel was out of soap, so we had to go out to buy our own.  Stove was dirty and rusted, so we didn't feel comfortable using it.  Beds were old and uncomfortable.  We needed synthetic pillows due to allergies to down, but none were available.  After 2 days we cancelled the rest of our week long stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r124880603-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>124880603</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>So so hotel, good price thru priceline</t>
+  </si>
+  <si>
+    <t>Decent hotel, good price and location, offer only 1 bed thru priceline, not as clean as other but not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Decent hotel, good price and location, offer only 1 bed thru priceline, not as clean as other but not bad.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2542,5374 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>162</v>
+      </c>
+      <c r="X15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>170</v>
+      </c>
+      <c r="X16" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>234</v>
+      </c>
+      <c r="O27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>134</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>264</v>
+      </c>
+      <c r="X28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>225</v>
+      </c>
+      <c r="O31" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>284</v>
+      </c>
+      <c r="X31" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>301</v>
+      </c>
+      <c r="O33" t="s">
+        <v>134</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s">
+        <v>307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>308</v>
+      </c>
+      <c r="O34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>311</v>
+      </c>
+      <c r="J35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>315</v>
+      </c>
+      <c r="O35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>315</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>323</v>
+      </c>
+      <c r="J37" t="s">
+        <v>324</v>
+      </c>
+      <c r="K37" t="s">
+        <v>325</v>
+      </c>
+      <c r="L37" t="s">
+        <v>326</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>332</v>
+      </c>
+      <c r="O39" t="s">
+        <v>134</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>339</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" t="s">
+        <v>341</v>
+      </c>
+      <c r="K40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>344</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>346</v>
+      </c>
+      <c r="J41" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s">
+        <v>349</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>350</v>
+      </c>
+      <c r="O41" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>352</v>
+      </c>
+      <c r="J42" t="s">
+        <v>353</v>
+      </c>
+      <c r="K42" t="s">
+        <v>354</v>
+      </c>
+      <c r="L42" t="s">
+        <v>355</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>356</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>359</v>
+      </c>
+      <c r="K43" t="s">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s">
+        <v>361</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>362</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>363</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>364</v>
+      </c>
+      <c r="J44" t="s">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s">
+        <v>367</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>368</v>
+      </c>
+      <c r="O44" t="s">
+        <v>134</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>369</v>
+      </c>
+      <c r="X44" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" t="s">
+        <v>376</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>368</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>377</v>
+      </c>
+      <c r="X45" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>381</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s">
+        <v>384</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>385</v>
+      </c>
+      <c r="O46" t="s">
+        <v>134</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>386</v>
+      </c>
+      <c r="X46" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>389</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>390</v>
+      </c>
+      <c r="J47" t="s">
+        <v>391</v>
+      </c>
+      <c r="K47" t="s">
+        <v>392</v>
+      </c>
+      <c r="L47" t="s">
+        <v>393</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>394</v>
+      </c>
+      <c r="X47" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>397</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>398</v>
+      </c>
+      <c r="J48" t="s">
+        <v>399</v>
+      </c>
+      <c r="K48" t="s">
+        <v>400</v>
+      </c>
+      <c r="L48" t="s">
+        <v>401</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>402</v>
+      </c>
+      <c r="O48" t="s">
+        <v>134</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>394</v>
+      </c>
+      <c r="X48" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>404</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>405</v>
+      </c>
+      <c r="J49" t="s">
+        <v>406</v>
+      </c>
+      <c r="K49" t="s">
+        <v>407</v>
+      </c>
+      <c r="L49" t="s">
+        <v>408</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>409</v>
+      </c>
+      <c r="O49" t="s">
+        <v>134</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>410</v>
+      </c>
+      <c r="X49" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>414</v>
+      </c>
+      <c r="J50" t="s">
+        <v>415</v>
+      </c>
+      <c r="K50" t="s">
+        <v>416</v>
+      </c>
+      <c r="L50" t="s">
+        <v>417</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>418</v>
+      </c>
+      <c r="O50" t="s">
+        <v>82</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>410</v>
+      </c>
+      <c r="X50" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>421</v>
+      </c>
+      <c r="J51" t="s">
+        <v>422</v>
+      </c>
+      <c r="K51" t="s">
+        <v>423</v>
+      </c>
+      <c r="L51" t="s">
+        <v>424</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>425</v>
+      </c>
+      <c r="X51" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>428</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>429</v>
+      </c>
+      <c r="J52" t="s">
+        <v>430</v>
+      </c>
+      <c r="K52" t="s">
+        <v>431</v>
+      </c>
+      <c r="L52" t="s">
+        <v>432</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>433</v>
+      </c>
+      <c r="O52" t="s">
+        <v>82</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>425</v>
+      </c>
+      <c r="X52" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>436</v>
+      </c>
+      <c r="J53" t="s">
+        <v>437</v>
+      </c>
+      <c r="K53" t="s">
+        <v>438</v>
+      </c>
+      <c r="L53" t="s">
+        <v>439</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>440</v>
+      </c>
+      <c r="O53" t="s">
+        <v>82</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>442</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>443</v>
+      </c>
+      <c r="J54" t="s">
+        <v>444</v>
+      </c>
+      <c r="K54" t="s">
+        <v>445</v>
+      </c>
+      <c r="L54" t="s">
+        <v>446</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>447</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>453</v>
+      </c>
+      <c r="O55" t="s">
+        <v>82</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>454</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>455</v>
+      </c>
+      <c r="J56" t="s">
+        <v>456</v>
+      </c>
+      <c r="K56" t="s">
+        <v>457</v>
+      </c>
+      <c r="L56" t="s">
+        <v>458</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>453</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>459</v>
+      </c>
+      <c r="X56" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>462</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>463</v>
+      </c>
+      <c r="J57" t="s">
+        <v>464</v>
+      </c>
+      <c r="K57" t="s">
+        <v>465</v>
+      </c>
+      <c r="L57" t="s">
+        <v>466</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" t="s">
+        <v>469</v>
+      </c>
+      <c r="K58" t="s">
+        <v>470</v>
+      </c>
+      <c r="L58" t="s">
+        <v>471</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>472</v>
+      </c>
+      <c r="O58" t="s">
+        <v>134</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>479</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>481</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>482</v>
+      </c>
+      <c r="J60" t="s">
+        <v>483</v>
+      </c>
+      <c r="K60" t="s">
+        <v>484</v>
+      </c>
+      <c r="L60" t="s">
+        <v>485</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>486</v>
+      </c>
+      <c r="O60" t="s">
+        <v>82</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>488</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>489</v>
+      </c>
+      <c r="J61" t="s">
+        <v>490</v>
+      </c>
+      <c r="K61" t="s">
+        <v>491</v>
+      </c>
+      <c r="L61" t="s">
+        <v>492</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>493</v>
+      </c>
+      <c r="O61" t="s">
+        <v>118</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>494</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>495</v>
+      </c>
+      <c r="J62" t="s">
+        <v>496</v>
+      </c>
+      <c r="K62" t="s">
+        <v>497</v>
+      </c>
+      <c r="L62" t="s">
+        <v>498</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>499</v>
+      </c>
+      <c r="O62" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>500</v>
+      </c>
+      <c r="X62" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>503</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>504</v>
+      </c>
+      <c r="J63" t="s">
+        <v>505</v>
+      </c>
+      <c r="K63" t="s">
+        <v>506</v>
+      </c>
+      <c r="L63" t="s">
+        <v>507</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>499</v>
+      </c>
+      <c r="O63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>508</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>509</v>
+      </c>
+      <c r="J64" t="s">
+        <v>510</v>
+      </c>
+      <c r="K64" t="s">
+        <v>511</v>
+      </c>
+      <c r="L64" t="s">
+        <v>512</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>513</v>
+      </c>
+      <c r="O64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>514</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>515</v>
+      </c>
+      <c r="J65" t="s">
+        <v>516</v>
+      </c>
+      <c r="K65" t="s">
+        <v>517</v>
+      </c>
+      <c r="L65" t="s">
+        <v>518</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>519</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>520</v>
+      </c>
+      <c r="X65" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>524</v>
+      </c>
+      <c r="J66" t="s">
+        <v>525</v>
+      </c>
+      <c r="K66" t="s">
+        <v>526</v>
+      </c>
+      <c r="L66" t="s">
+        <v>527</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>528</v>
+      </c>
+      <c r="O66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>529</v>
+      </c>
+      <c r="X66" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>532</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>533</v>
+      </c>
+      <c r="J67" t="s">
+        <v>534</v>
+      </c>
+      <c r="K67" t="s">
+        <v>535</v>
+      </c>
+      <c r="L67" t="s">
+        <v>536</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>537</v>
+      </c>
+      <c r="O67" t="s">
+        <v>134</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>529</v>
+      </c>
+      <c r="X67" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>539</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>540</v>
+      </c>
+      <c r="J68" t="s">
+        <v>541</v>
+      </c>
+      <c r="K68" t="s">
+        <v>542</v>
+      </c>
+      <c r="L68" t="s">
+        <v>543</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>544</v>
+      </c>
+      <c r="X68" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>547</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>548</v>
+      </c>
+      <c r="J69" t="s">
+        <v>549</v>
+      </c>
+      <c r="K69" t="s">
+        <v>550</v>
+      </c>
+      <c r="L69" t="s">
+        <v>551</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>552</v>
+      </c>
+      <c r="O69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>553</v>
+      </c>
+      <c r="X69" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>556</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>557</v>
+      </c>
+      <c r="J70" t="s">
+        <v>558</v>
+      </c>
+      <c r="K70" t="s">
+        <v>559</v>
+      </c>
+      <c r="L70" t="s">
+        <v>560</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>561</v>
+      </c>
+      <c r="O70" t="s">
+        <v>82</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>562</v>
+      </c>
+      <c r="X70" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>565</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>566</v>
+      </c>
+      <c r="J71" t="s">
+        <v>567</v>
+      </c>
+      <c r="K71" t="s">
+        <v>568</v>
+      </c>
+      <c r="L71" t="s">
+        <v>569</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>570</v>
+      </c>
+      <c r="O71" t="s">
+        <v>134</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>571</v>
+      </c>
+      <c r="X71" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>574</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>575</v>
+      </c>
+      <c r="J72" t="s">
+        <v>576</v>
+      </c>
+      <c r="K72" t="s">
+        <v>577</v>
+      </c>
+      <c r="L72" t="s">
+        <v>578</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>570</v>
+      </c>
+      <c r="O72" t="s">
+        <v>82</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>579</v>
+      </c>
+      <c r="X72" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>582</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>583</v>
+      </c>
+      <c r="J73" t="s">
+        <v>576</v>
+      </c>
+      <c r="K73" t="s">
+        <v>584</v>
+      </c>
+      <c r="L73" t="s">
+        <v>585</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>570</v>
+      </c>
+      <c r="O73" t="s">
+        <v>134</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>579</v>
+      </c>
+      <c r="X73" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>587</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>588</v>
+      </c>
+      <c r="J74" t="s">
+        <v>589</v>
+      </c>
+      <c r="K74" t="s">
+        <v>590</v>
+      </c>
+      <c r="L74" t="s">
+        <v>591</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>592</v>
+      </c>
+      <c r="O74" t="s">
+        <v>82</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>593</v>
+      </c>
+      <c r="X74" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>597</v>
+      </c>
+      <c r="J75" t="s">
+        <v>598</v>
+      </c>
+      <c r="K75" t="s">
+        <v>599</v>
+      </c>
+      <c r="L75" t="s">
+        <v>600</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>601</v>
+      </c>
+      <c r="O75" t="s">
+        <v>134</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>602</v>
+      </c>
+      <c r="X75" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>605</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>606</v>
+      </c>
+      <c r="J76" t="s">
+        <v>607</v>
+      </c>
+      <c r="K76" t="s">
+        <v>608</v>
+      </c>
+      <c r="L76" t="s">
+        <v>609</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>610</v>
+      </c>
+      <c r="O76" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>611</v>
+      </c>
+      <c r="X76" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>614</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>615</v>
+      </c>
+      <c r="J77" t="s">
+        <v>616</v>
+      </c>
+      <c r="K77" t="s">
+        <v>617</v>
+      </c>
+      <c r="L77" t="s">
+        <v>618</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>519</v>
+      </c>
+      <c r="O77" t="s">
+        <v>134</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>619</v>
+      </c>
+      <c r="X77" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>622</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>623</v>
+      </c>
+      <c r="J78" t="s">
+        <v>624</v>
+      </c>
+      <c r="K78" t="s">
+        <v>625</v>
+      </c>
+      <c r="L78" t="s">
+        <v>626</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>519</v>
+      </c>
+      <c r="O78" t="s">
+        <v>134</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>627</v>
+      </c>
+      <c r="X78" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>630</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>631</v>
+      </c>
+      <c r="J79" t="s">
+        <v>632</v>
+      </c>
+      <c r="K79" t="s">
+        <v>633</v>
+      </c>
+      <c r="L79" t="s">
+        <v>634</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>635</v>
+      </c>
+      <c r="X79" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>638</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>639</v>
+      </c>
+      <c r="J80" t="s">
+        <v>640</v>
+      </c>
+      <c r="K80" t="s">
+        <v>641</v>
+      </c>
+      <c r="L80" t="s">
+        <v>642</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>643</v>
+      </c>
+      <c r="O80" t="s">
+        <v>82</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>644</v>
+      </c>
+      <c r="X80" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>647</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>648</v>
+      </c>
+      <c r="J81" t="s">
+        <v>649</v>
+      </c>
+      <c r="K81" t="s">
+        <v>650</v>
+      </c>
+      <c r="L81" t="s">
+        <v>651</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>652</v>
+      </c>
+      <c r="O81" t="s">
+        <v>82</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>644</v>
+      </c>
+      <c r="X81" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>654</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>655</v>
+      </c>
+      <c r="J82" t="s">
+        <v>656</v>
+      </c>
+      <c r="K82" t="s">
+        <v>657</v>
+      </c>
+      <c r="L82" t="s">
+        <v>658</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>659</v>
+      </c>
+      <c r="O82" t="s">
+        <v>134</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>644</v>
+      </c>
+      <c r="X82" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36306</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>661</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>662</v>
+      </c>
+      <c r="J83" t="s">
+        <v>663</v>
+      </c>
+      <c r="K83" t="s">
+        <v>664</v>
+      </c>
+      <c r="L83" t="s">
+        <v>665</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>666</v>
+      </c>
+      <c r="O83" t="s">
+        <v>134</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>644</v>
+      </c>
+      <c r="X83" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>667</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_271.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_271.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="749">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>rachelrodes</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Staff was very friendly. I believe his name to be Alex, was very helpful and efficient. Checking in was fast. Rooms are clean. Hotel is quiet. Kitchen was larger than expected. Free and abundant parking. Food close by.More</t>
   </si>
   <si>
+    <t>robertbD5300SA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r565204489-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Great place and everyone there is very nice and will help u at whenever they can. the management team is the best, location is outstanding, everything u can ask for is actually within walking distance if u so choose. you couldnt ask for a safer location and a more friendly enviromentMore</t>
   </si>
   <si>
+    <t>traveler0296</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r562143321-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>DO NOT STAY HERE AT ALL COSTS.  Had to call their headquarters/regional office while staying there.Thoroughly disappointed and disgusted at this place.  All the negative reviews are true.Here's the list:- TV remote did not upon arrival.- Kitchen supplies needed to be ordered.  You'd think if there was a kitchen it'd be stocked with the basic essentials upon guest arrival.- Towels smelled like dried fish.- Found 2 cockroaches throughout the stay. - Front desk service a okay.    - Found sunflower seed shells on the floor near the bed. - Asked to have our bed sheets changed since we renewed our reservation for another night, but they didn't and didn't make it seem like they could do anything about it.More</t>
   </si>
   <si>
+    <t>cooldoms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r542509255-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>Positive - The size of the room was nice and big. The room was clean. There is plenty of parking. The bed was comfortable. Regina at the front desk is a jewel. Not so positive - No ice machine on property. No hair dryer in room. The light was turned off in breakfast room, so you really could not see the sparse selection of muffins and granola bars.More</t>
   </si>
   <si>
+    <t>Kay A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r541877390-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Do Not recommend. Hotel is not adequately staffed. On Check in at 3pm we requested the kitchen courtesy oak because we planned to prepare meals during our stay. Finally st 8pm after  additional requests the desk clerk showed  up with a few of the items. No ice maker in the hotel  and no ice in the refrigerator. Stove took 25 minutes to boil water to make tea. Room had not been adequately cleaned or vacummed. Save yourself some frustration  and stay in a different hotel.More</t>
   </si>
   <si>
+    <t>Dustin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r535803387-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>I want to start off by saying that Regina is very personal in helping out with any issues that comes up. And is always on top of anything is ask her. She deserves a promotion. If you ever come her ask for Regina’s assistance. More</t>
   </si>
   <si>
+    <t>nadeenez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r526573004-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>The room was great, so clean. It had a built it kitchen which is great for at home food. The man, Alex, at the front desk was awesome! Kept conversation going and even gave us a little travel goodie bag of candy. Super sweet! Would come again :-) More</t>
   </si>
   <si>
+    <t>audrylee2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r513243603-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -384,6 +408,9 @@
     <t>A room with a kitchen but no dishes, cups, glasses, silverware, etc is kind of useless. Having the refrigerator was nice. If you stay here, just be sure to bring your own kitchen wares.  Room was clean. More</t>
   </si>
   <si>
+    <t>vbu1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r512991350-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -402,6 +429,9 @@
     <t>Had 3 prepaid reserved rooms.  Checked 2 people in during the afternoon and gave the name of the 3rd person who was checking in later.  When the 3rd person came to check in, he was told the hotel was full and the room was canceled, and he was turned away from what was a prepaid, reserved room.More</t>
   </si>
   <si>
+    <t>norab177</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r507956872-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -432,6 +462,9 @@
     <t>This hotel was "just okay"! The room was comfortable but it wasn't anything special. There is no restroom in the lobby and we had to wait for our room! The lobby has no coffee most of the time. Grab n go breakfast was a joke!More</t>
   </si>
   <si>
+    <t>Joan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r507921967-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -447,6 +480,9 @@
     <t>While our nearby home was being fumigated we needed a convenient, comfortable and reasonably-priced place to stay while going about business as usual. It wasn't a vacation, so we didn't need frills - just a clean, pleasant room to call home for 3 nights. It fit the bill perfectly.More</t>
   </si>
   <si>
+    <t>elizabethtT5249FB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r507645508-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -465,6 +501,9 @@
     <t>Great stay overall. Hotel was nice and clean very relaxing and quite. Prices were at a good range. The environment was very friendly. Would definatly stay here again and would highly recommend to anyone.More</t>
   </si>
   <si>
+    <t>Pablo M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r502372853-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -489,6 +528,9 @@
     <t>Perfect place to stay for a long business related trip in Orange County. I stayed for 6 months, the staff changed a few times, it would have been best if the same staff was there all the time. Overall a good experience.More</t>
   </si>
   <si>
+    <t>phillytom_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r500294390-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -513,6 +555,9 @@
     <t>The hotel is in a great location.  Staff was friendly and helpful and the room was clean.  Small bed but no problems sleeping.  Recommend the Chili's across the street for good food and cold adult beverages.More</t>
   </si>
   <si>
+    <t>Hemant R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r499566771-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -537,6 +582,9 @@
     <t>This review is for non-smoking King Room  Hotel staff was very warm and welcoming . They did reservation on same night and extended for next 2 days . I am very pleased with Jessica's service . Since you have a small kitchen , in every room - you can cook meals (they provide utensils) . This is especially helpful for families with Kids .More</t>
   </si>
   <si>
+    <t>thensley5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r496037771-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -564,6 +612,9 @@
     <t>Pleasant property, comfortable beds. Family friendly. Great grab n go breakfast. Clean and kitchenettes too! Definitely recommend for business trips, staycations and pet friendly as well. We will come back again!More</t>
   </si>
   <si>
+    <t>UtahDaytripper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r480587298-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -591,6 +642,9 @@
     <t>we have tried Extended stay at four different locations in southern California to visit family and each time the room, or bed, or TV or noise is always a issue. This time all four were the issue. so called queen size bed was a full size at best and very hard, the old GE refrigerator was very noisey even when turned all the way down with ear plugs in to try to sleep, the TV remote didn't work and the flat screen had a 1 foot vertical white line in the center, the Wi Fi was down all night and the noisey kids above us were yelling at each other until midnight....even the outside grounds as to the parking areas were needing to be steam cleaned and swept as well as the sidewalks to enter the hotel. Morning coffee in lobby was ok and mimi muffins and granola bars and dry oatmeal ( no milk, maybe use the coffee creamer and water? ) ao will we stay again at any locations? Nope, they are all the same....More</t>
   </si>
   <si>
+    <t>198calvinn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r474375353-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -615,6 +669,9 @@
     <t>The hotel is in a business park. It's right off a main road, so it has access to places. The place is clean. My room had 2 beds, a stove, a full sized refrigerator with freezer space, a sink, and a small dining area included with typical hotel things. Brenda and Jessica were good in asking if things are OK throughout my stay.More</t>
   </si>
   <si>
+    <t>liquidsunshine01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r461501285-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -642,6 +699,9 @@
     <t>I needed a place to stay one night after a cruise at Long Beach.  This hotel is off by itself in a business park.  The hotel is clean, quiet, friendly staff.  The upstairs hallway smelled of smoke but not in the rooms.  The beds were comfortable, nice sized TV, huge kitchen which we didn't use except for the full sized fridge.  I had to ask for a hair dryer.  They have a large guest laundry room with many machines.  The only disappointment was the "grab-n-go" breakfast which was oatmeal packets, hot chocolate/coffee, muffins, breakfast bars and nowhere to sit.  It was OK, but if I had known I might have chosen a place with a full hot breakfast.  I guess any longterm guest would buy breakfast foods for themselves so they don't want to encourage eating theirs.A tip is that across the parking lot is a small business park (there's a gate through the wall) with a delicious looking Hawaiian place, Wendy's, Fedex, and a couple unmemorable places.  If I had known, I would have eaten there instead of grabbing drive-thru on the way over.  The Wendy's had at least one breakfast sandwich but I didn't eat there.It's not near anything, but reasonable driving distance to Disney (20 min), Long Beach (20 min), and LA (45 min).Overall it was nicer than a La Quinta except for the breakfast.More</t>
   </si>
   <si>
+    <t>jacsonl286</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r460674633-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -660,6 +720,9 @@
     <t>I came very late and front desk girl was so friendly and kind she quecked me in very quickly everything went well and she asked if i needed anything to let her know so my stay was conforming ad i will stay againMore</t>
   </si>
   <si>
+    <t>Marcia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r449373151-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -678,6 +741,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Shehzad S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r425947813-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -705,6 +771,9 @@
     <t>Hotel is located in nice quiet neighborhood. Staff is efficient but short staffed. Rooms are neat and clean. Location is excellent if you are on family holiday as it is 15 minutes from many children's attractions including Disney World. Very nice restaurants in the neighborhood.. Stayed here for almost 3 weeks. Good experience.. More</t>
   </si>
   <si>
+    <t>995drichardson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r424580023-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>Whenever in the area for business or pleasure, Extended Stay Cypress is always my first choice.  I always appreciate the the professional staff which includes Eddie, Jazmin, Michelle and Roshan.  Rooms are clean and comfortable in a modern atmosphere that is near to a wide variety of food establishments.  I would definitely recommend!More</t>
   </si>
   <si>
+    <t>PetsRFamily2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r423720291-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -753,6 +825,9 @@
     <t>I flew in from Hawaii to help my Mom w her broken Ankle after her Chemo. Her landlord was having copper piping done throughout the complex so we had to be moved To "Hotel" .. little did we know how basic this was. Never been to a hotel with NO DAILY MAID SERVICE.. No Vacuuming , No Trash Emptied, No Fresh Towels in Room, No bed Made Dailey..Rooms have Very thin walls and the doors were all slammed by neighbors Constantly ALL DAYS ..This was a Huge Shock to Us. Would've been nice at Check In to learn this is a Self Serve Hotel . Rooms Should've Reflected in Price.. Their Breakfast is Banana Nut, Choc or Blueberry Muffins from Costco individually wrapped. Hot Choc or Coffee ..Dailey 6:30-9:30am.. Michelle and Jazmin were very nice at Front Desk. Luckily.More</t>
   </si>
   <si>
+    <t>souzaalx13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r418880706-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -777,6 +852,9 @@
     <t>I've been at this Extended Stay for about a month for work, and the employees really go above and beyond to make sure your needs are met. I've stayed at others in Southern California and this one is by far the nicest, most pleasant stay.More</t>
   </si>
   <si>
+    <t>Bashar a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r404724712-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -795,6 +873,9 @@
     <t>I never wrote review before , and usually travel at least 10 times a year , but this has been worse customer Service ever , not sure how they are stillIn business , Booked through Hotwire arrived late night with my wife and 2 kids. Was given smoking room even I called early to request non smoking ,  with one bed for 2 adult and 2 kids , no sofa no recliner , only one wooden chair , told that the room they have. Because I booked through Hotwire they can not guarantee any room and the front desk was very rude , did note try to help at all  ,asked for extra bed. Or even extra blanket said can not give me anything  , I end up sleeping on the ground ,next morning, they said they can not promise me that they can change room and most likely they will not , so I just left , worse experience with Hotel ever. I learned not to use Hotwire again, but this hotel is really bad , room are very small. No iron no coffee maker , one small bedMore</t>
   </si>
   <si>
+    <t>Jan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r403835117-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -817,6 +898,9 @@
   </si>
   <si>
     <t>Stayed here for two weeks and not once did they clean our rooms. We had 3! They were seriously under-staffed.  Also the rooms had a terrible smell in each one. We bought air fresheners, but the smell never went away. They did not empty the trash rooms regularly either.  On our last day someone had placed their trash in the hallway instead of walking it to the trash room. So glad to check out!More</t>
+  </si>
+  <si>
+    <t>experiencememories</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r399231295-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
@@ -843,6 +927,9 @@
 The rooms are dates and the beds are old, warn and creaky (read loud if you move). Everything was loud in our room. The fridge had a...I travel often for work and have stayed at several Extended Stays before. I'm beyond disappointed with our experience at this location. When we arrived at the hotel our room wasn't ready along with several other families we were traveling with.  We all were corralled into a room to wait and wait for our rooms to be ready long after the 3:00 check in. The hotel was extremely understaffed and was unable to offer the basics like clean towels and enough cooking utensils for each room. One of the reasons we selected the Extended Stay was so we could use the full kitchens to cook. We had to make several trips to the front desk to gather each basic item we needed like knife, dish soap, cutting board and even a basic pot. The hotel is poorly managed and in disarray. The garbages are overflowing inside and outside the property.  They are behind on laundry daily. One day my daughter had to dry off with a hand towel and the hairdryer because they had zero clean towels.  The amenities are beyond limited. No pool, no exercise room, no business room just s dirty laundry room and in theory full kitchen but be advised they don't have ovens and they don't have enough utensils. The rooms are dates and the beds are old, warn and creaky (read loud if you move). Everything was loud in our room. The fridge had a whine to it, the fan in the bathroom sounded like a plane landing and the AC unit raddled. The bathrooms are even more dated and in need of repair. The shower/tub looked dirty because it was so old and has had so many shoddy repair jobs. The upside to staying here is we finally get to checkout today.  It's not worth any discount they offer stay somewhere else. More</t>
   </si>
   <si>
+    <t>Laura G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r398648176-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -861,6 +948,9 @@
     <t>Booked five rooms at this hotel for a show at the Convention Center nearby.  Confirmation states that changes or cancellation must be made by 6:00 pm on July 24th (first night of stay).  Client decided they didn't need the first night on three rooms so I called to cancel first night on July 23rd.  Was told sorry, they were sold out for the remaining nights of the reservation so they would not be able to cancel the first night.  Huh?  Got Hotels.com involved and they were able to contact hotel and get the first night cancelled, sent me an email confirmation they were cancelled and the refund was coming.  All good.  Clients went to check in on night of July 25 at 11:30 pm (after working all day at convention center) and were told their rooms were cancelled altogether and that they were sold out.  No manager available to reason with.  Found rooms at two different hotels at a much higher rate because it's very close to Disneyland and it's summer!  Hotels.com calls them again the following day and the hotel manager said the person (their employee) who originally cancelled the first night had no authority to do so.  Oh, and not only that but the clients were charged a no-show fee. I can't even begin to explain what a horrible situation this has been, not to mention my clients want to know where their refund is for the entire...Booked five rooms at this hotel for a show at the Convention Center nearby.  Confirmation states that changes or cancellation must be made by 6:00 pm on July 24th (first night of stay).  Client decided they didn't need the first night on three rooms so I called to cancel first night on July 23rd.  Was told sorry, they were sold out for the remaining nights of the reservation so they would not be able to cancel the first night.  Huh?  Got Hotels.com involved and they were able to contact hotel and get the first night cancelled, sent me an email confirmation they were cancelled and the refund was coming.  All good.  Clients went to check in on night of July 25 at 11:30 pm (after working all day at convention center) and were told their rooms were cancelled altogether and that they were sold out.  No manager available to reason with.  Found rooms at two different hotels at a much higher rate because it's very close to Disneyland and it's summer!  Hotels.com calls them again the following day and the hotel manager said the person (their employee) who originally cancelled the first night had no authority to do so.  Oh, and not only that but the clients were charged a no-show fee. I can't even begin to explain what a horrible situation this has been, not to mention my clients want to know where their refund is for the entire stay.  Hotels.com/Expedia is figuring it out from here.More</t>
   </si>
   <si>
+    <t>Randy E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r390227409-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -885,6 +975,9 @@
     <t>I stayed long term at the Extended Stay America in Cypress, CA and was quite impressed with the staff's professionalism, friendliness, hospitality and all their attempts to ensure I had a wonderful stay. I would like to offer a heartfelt thank you to the Asst. Gen. Mngr. Daniela Sanchez, the front office staff...Eddie, Henry, Michelle and Jeremy.....and I can't forget to thank both Antonia (Housekeeping) and Evaristo (Maintenance). Y'all have been so incredible throughout my stay! So once again I'd like to thank you all for making my visit at Extended Stay America in Cypress, CA so wonderful.More</t>
   </si>
   <si>
+    <t>blueghost005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r381684071-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -912,6 +1005,9 @@
     <t>The staff is outstanding always listing and understanding customer needs. they know the area and attractions and how to get there. the cleaning staff maintain the rooms to very high standards. here are a few names that should receive some very high accolade's; Eddie, Michelle, Daniela to mention a few.More</t>
   </si>
   <si>
+    <t>Nancy V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r378516399-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -931,6 +1027,9 @@
   </si>
   <si>
     <t>Daniela is a exceptional employee over at extended stay. She helped me accommodate an earlier check in time and had my room prepped and ready. All of the utensils were inside my room(you have to request them, don't expect to be in the room). Everyone is friendly and very helpful. You can request daily housekeeping for additional fee. No gym or pool, but why would you want to when there's a beach nearby and you're on vacation! Many main attractions are nearby and easily accessible. Grocery stores and Starbucks are 2 minutes away. There's grab and go breakfast items in the morning. You can even request some after hours. The staff are more than delighted to bring you some. Fresh linen and towels can be exchanged daily at the front desk. The hotel is a little outdated but the standards are kept at a high. Full kitchen just like an apartment. This place is also pet friendly(for additional fee). More</t>
+  </si>
+  <si>
+    <t>lamonville</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r361657797-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
@@ -960,6 +1059,9 @@
 That night, I asked Paco about coning off an area since there were enough available parking spaces, but they were all spread out, and what I needed was 5 together. He called his manager, Roger, whom Paco told me said yes. The next day, when I left and returned that evening, I thanked Jeremy profusely for coning the area...Let me first say that the guys at the front desk were excellent. I even saw them go out of their way to get breakfast for people who were late. They were a pleasure. That being said, I stayed here because I was driving a bus and it said there was truck parking. I even called when I made the reservation and asked them at the front desk and they assured me there was. There is not. I told them there was nothing oversized about it nor was there a designated location for a truck or bus. It was very frustrating to me because when I had to leave to take my group of people (Who were staying at another location.) out to dinner, I came back to nowhere to park. There is no parking on the adjacent street and I parked in the business parking lot next door only because I was hoping Sunday morning would not be an issue (There were cars there but not a ton and no one called me to move it or have it towed.).That night, I asked Paco about coning off an area since there were enough available parking spaces, but they were all spread out, and what I needed was 5 together. He called his manager, Roger, whom Paco told me said yes. The next day, when I left and returned that evening, I thanked Jeremy profusely for coning the area off. He then told me that Roger did NOT say they would cone a section off, and that it's first-come, first-served, and yes, they consider it to have truck parking. I wasn't in the mood to play games, so our company will no longer use this location only for that reason. Other than that, I enjoyed my stay &amp; felt that Paco and Jeremy did their best to try to accommodate me.More</t>
   </si>
   <si>
+    <t>lmh391</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r352794038-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -978,6 +1080,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>52dianna2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r352182561-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -996,6 +1101,9 @@
     <t>I would rate my stay at the Cypress location "so so".  The building is showing its age, the lobby looks slightly tired, with old carpet and worn out luggage carriers and furnishings.  Front office staff friendly but were not always wearing a name tag.   I had to ask for a "do not disturb" sign for my door but was told they ran out and had to order more.   I had to make my own "do not disturb" note and tape it to my door for the remainder of my stay.      Another complaint is that my room had no shower curtain.  I went to the desk to ask for one, the clerk produced one and asked me, "Do you want me to put it up for you?"  I know this is a bare bones hotel, but of COURSE I did not think I had to hang up my own shower curtain!    My suite was otherwise nice and clean.  My stay at the Cypress location cost more and was not as nice as the Huntington Beach location where I stayed in January, 2016.    I will stay in Huntington Beach from now on when I come to Orange County.More</t>
   </si>
   <si>
+    <t>shanani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r351203389-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1011,6 +1119,9 @@
     <t>Jeremy was working the front desk. He was very friendly and helpful.  There were other people waiting behind us and he made sure to let them know he would be with them shortly. As long as Jeremy works here I will never stay anywhere else in Orange County.</t>
   </si>
   <si>
+    <t>Lily S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r343344198-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1029,6 +1140,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>cathe1103</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r343025118-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1047,6 +1161,9 @@
     <t>Booked my room online for a 2 day stay. When I got to the Hotel, my room wasn't available -so my room was downgraded. Most Hotels will upgrade you but not this place. Remember you must request kitchen items for your extended stay visit. Items are only available on request and you'll have to request several times because I never received any of the items described in the advertisement. Not even a coffee maker, cups, utensils etc. Room was nasty. Bathroom cabinets had writings on them from previous guests on the bathroom cabinets. Looks like the found it very depressing there too. The best part is after I rated then unsatisfactory I received a call from the manager who wanted to comp me a free room and requested my address - almost 2 months later I haven't heard back from him or received compensation for my stay. Oh and breakfast was a few of hard muffins and granola bars. Quaker Oatmeal packages with no bowl to put it in. What a joke. Couldn't log into WIFI.More</t>
   </si>
   <si>
+    <t>rain99 x</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r339063077-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1065,6 +1182,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>51Therese</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r327434859-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1083,6 +1203,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Corgii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r318437517-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1101,6 +1224,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>TashandBrad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r311491828-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1119,6 +1245,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Sarah R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r266503412-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1146,6 +1275,9 @@
     <t>Located in a nice, quiet area.  Easy check-in with kind staff.  About a 15 minute drive to Disneyland.  About 10 minutes from three different highways.  A couple of things that bothered me was that the bathroom was not as clean as I would have liked, there were stray hairs in the bathtub.  There was some sort of mildew around the inside rim of the toilet.The walls are thin!  So if you have children like how I do either let the staff know to place you far from other guests, or stay away cause then your neighbor will knock on your wall.  I understand that children can be loud, but if I am a paying guest I don't want to feel as though I need to walk around eggshells while we are on vacation.Breakfast? - Think coffee, muffins, and granola bars.Other than those minor things, it did the job.PS- I encountered one rude staff from housekeeping.  As I was on my way to the room, she was parked outside the room and I kindly asked her for one more roll of toilet paper and a towel.  Not a smile came from her and she handed the items to me facing AWAY, it was very rude.More</t>
   </si>
   <si>
+    <t>Ruby N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r262905898-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1170,6 +1302,9 @@
     <t>Great and friendly staff. Daniela at the front desk was very helpful and helped us find great activites around the area. She even helped me find my lost necklace. Clean and comfortable rooms. I Would recommend This Hotel.More</t>
   </si>
   <si>
+    <t>Janelle V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r247236758-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1197,6 +1332,9 @@
     <t>Room was clean. Towels were thread bare and you had to go to front desk to ask for new ones daily. You had to ask for new ones because they were so awful. Bed was awful as well. The floor might have been more comfortable.More</t>
   </si>
   <si>
+    <t>Brittany2008150</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r245250194-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1221,6 +1359,9 @@
     <t>The service was excellent and Daniela was very friendly. She was very helpful and answered all of my questions professionally as well as accurately!!! Thank you Daniela for your excellent customer service. I will definitely be returning!!!!! More</t>
   </si>
   <si>
+    <t>Liz Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r243893295-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1242,6 +1383,9 @@
     <t>My husband and I were too tired from a trip to drive all the way home so we found this hotel nearby. The check-in process was quick and easy, which we really appreciated. The staff was extremely helpful and very friendly, such a relief after a long day! Price was a great value. Definitely coming back and would recommend to family and friends.More</t>
   </si>
   <si>
+    <t>Laurie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r237467303-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1269,6 +1413,9 @@
     <t>We recently sold our timeshare and were accustomed to presidential suites?? Now what do we do.  We looked into this hotel after seeing TV commercials, kitchen etc.  At our request, a family member went to check it out, as we wanted to pay in advance (no refund) to get the discounted rate.  We said it doesn't have to be fancy, can't stink and can't be dirty.  So,we made our reservation.  We stayed a little over a week.  There are no bells or whistles.  But, it was clean and spacious, recently renovated, quiet, good lighting in the parking lot (which we appreciated), a grab and go breakfast (we always got our coffee downstairs), fruit, muffins, granola bars, oatmeal.  We had to request items we wanted for our kitchen.  We had one midweek cleaning. We were able to exchange towels as needed.  we were in Cypress to visit with our family and were within 3-5 miles from their home.  Not bad for our first extended stay post timeshare.More</t>
   </si>
   <si>
+    <t>Mary B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r224192881-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1290,6 +1437,9 @@
     <t>This is an excellent option for anyone looking for a safe and convenient hotel with great amenities, that is close to Los Angeles. The hotel is always clean and comfortable and very well managed. It is in a good neighborhood, with a lot of restaurants, stores, groceries, etc. close by, within walking distance. It is great for professionals who are traveling for business for an extended time. Roger the manager is The Best, highly professional and always helpful. I would recommend and have recommended this hotel to friends. Mary B.More</t>
   </si>
   <si>
+    <t>Tammy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r214982744-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1314,6 +1464,9 @@
     <t>Room was freshly painted, carpets dirty and stained. Not enough staff at front desk and no one there before 7am. I waited in a line every night to speak with the attendant at the front desk. If he was on the phone he did not acknowledge those waiting to speak to him. Staff not trained in  customer service. I won't be back.More</t>
   </si>
   <si>
+    <t>Akili600</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r214566480-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1333,6 +1486,9 @@
   </si>
   <si>
     <t>I checked in around 6pm. I was first given a room that did not have any bedding on the bed. Then I was switched to another room and left for a basketball tournament, did not return until around 1am. When I pulled back the first blanket, the next blanket was full of someone long hair. The whole blanket was covered with it. Then I pulled back the sheet and there were several lang strands on the sheets as well. Disgusting! Also in the bathroom, one of the face towels was dirty.More</t>
+  </si>
+  <si>
+    <t>Esmerelda C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r212507564-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
@@ -1358,6 +1514,9 @@
 After staying just twice, it seems there is always something missing.  The first 10 day stay, there were no wash clothes, no knife and no paper towels.  The second 10 day stay, still no paper towels (obviously those aren't provided), the clock doesn't work, the phone doesn't have the right extension on it, the bath is stuck in shower mode.  There just always seems to be something not quite right.  Don't count on finding any sort of channel guide.  The 'free' wireless speeds are about as fast as dial-up but hey you get what you pay for. Key quit working on the...It's not what I would call 'extended stay' any longer than about 3 days.  Perhaps my business trips are longer than most, being about 10 days on average and that's why I find errors.  It's as if they don't understand what's expected on an extended stay.  Their version of it seems to be a total Hands-Off approach.  Perhaps I my expectations are simply too high.  I expect for the price, this room to be clean and functioning, (all gadgets/fixtures function), room keys that work for my entire stay, a normal weekly refreshing of linens,a decent number of coffee packets (it's extended stay for a reason- why they only provide only 1 is odd), a channel guide, all kitchenette utensils present.  Obviously I don't expect anyone to do my dishes.  I don't expect someone to do my personal laundry.  After staying just twice, it seems there is always something missing.  The first 10 day stay, there were no wash clothes, no knife and no paper towels.  The second 10 day stay, still no paper towels (obviously those aren't provided), the clock doesn't work, the phone doesn't have the right extension on it, the bath is stuck in shower mode.  There just always seems to be something not quite right.  Don't count on finding any sort of channel guide.  The 'free' wireless speeds are about as fast as dial-up but hey you get what you pay for. Key quit working on the 5th day.  A better organized operating procedure seems to be needed.  For example, if they knew ahead of time the room was booked for 2 weeks, they could have the room actually ready for a 2-week stay.  They would do fresh linens every 7 days, they would make sure all the amenities actually worked BEFORE someone walked in the room.  I've read such good reviews from people only staying a short time, so I can only assume that those booked into extended stay rooms are left in a black-hole somewhere until they check out.  Still the beds are comfortable.  The AC works well.  It's quiet. Things are relatively clean.  There is easy access to grocery stores and things to do.  The staff is courteous.More</t>
   </si>
   <si>
+    <t>RugglesTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r212043512-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1376,6 +1535,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>PJ P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r211618308-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1394,6 +1556,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>AKo75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r194642081-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1418,6 +1583,9 @@
     <t>For a long term stay, this is ideal.  I was concerned with some of the reviews with regards to the facilities but pleasantly surprised.  I noticed how good my room smelled when I entered, Minus one burner that wasn't working, everything else was in working order.  Love the full size fridge.  I wasn't a huge fan of the pillows, they seemed to be the cheap kind (and one smelled like old man - ick).Internet was decent.  There is an option to purchase high speed, I didn't need it for light work and my iPhone.I would stay here again if I needed a long-term stay with a fridge and kitchen.  The room I stayed is was small, but it was just me and I was in the room pretty much for sleeping.  Within walking distance, there were a few restaurants (Subway, Fish Market, I think a Thai restaurant, etc.).  Within driving distance, plenty of grocery stores and restaurant options.More</t>
   </si>
   <si>
+    <t>rollergirl03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r193992363-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1433,6 +1601,9 @@
     <t>My stay at this hotel has been fantastic. Location is perfect. Very clean rooms. The kitchen is such a plus and a very big part of why I chose this hotel. Makes it feel more like a studio apartment rather than a hotel . Thanks again for a great stay at  Extended Stay.</t>
   </si>
   <si>
+    <t>gabby F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r192357393-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1454,6 +1625,9 @@
     <t>Lobby small.  People basic.  Rooms ok.  There were cockroaches in our bathroom and kitchen.  Nothing was done about it when we reported it.  they didn't even offer to give us another room.  They have no maid service unless you stay over seven days.  they give you basics.  if you need more toilet paper or paper towels , you have to ask for it in the lobby. And they don't have a pool or other types of facilities for children.  very boring.  They had one table outside and one BBQ pit for the entire hotel.  We were here with our basketball team for a tournament.  Cancelled our upcoming reservations and will never stay at one of these hotels.More</t>
   </si>
   <si>
+    <t>parwaygary</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r183855381-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1475,6 +1649,9 @@
     <t>room 140.  opened the door and a roach ran across the counter. i caught it and took it to the front desk and he offered to change the room. i declined because we had just drug our stuff in and we were super tired. i said i better not see another one but his friend showed up the next morning on the wall behind the tv.any place with a kitchen might have bugs. i told the manager to spray or something while we were gone , said they would but did not get back to me or offer any real apology. missing light bulb,missing spoons, missing tv guide and only coffee and hot water for oatmeal plus some fruit and granola bars for breakfast. really poor for $90. a night however the bed was great. the tv control would only move the volume 1 step at a time slowly. that was really bad when the next channel was loud.wifi was full of ad's. and kind of slowMore</t>
   </si>
   <si>
+    <t>Naje2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r181109182-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1496,6 +1673,9 @@
     <t>I liked every aspect of my room, from the kitchenette to the queen size bed and soft pillows. The staff are friendly and ready to listen. The hotel is strategically located near shopping malls and restaurants. Extended stay is an ideal place for those on extended business trips due to the facilities offered. If you love cooking rather than eating out, this is the hotel. On the downside, the hotel does not provide shuttle services to LAX. The air conditioner in my room was loud that I had to switch it off and sweat it out...skip the breakfast if you can, nothing much on offer except muffin, coffee, instant oat porridge and apples!More</t>
   </si>
   <si>
+    <t>MikeBISL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r179646978-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1514,6 +1694,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>theTraveler0626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r175809247-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1541,6 +1724,9 @@
     <t>The room was spacious, clean, and comfortable.  However, the location is too far from where we want to go and since we booked it last minute i was pricey for the room we got.  The service was good too. I will definitely stay here again if i come back to the area.More</t>
   </si>
   <si>
+    <t>Lucy E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r173081275-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1556,6 +1742,9 @@
     <t>This place did not change the bedding!  Found large bugger on blanket, dirty sheets and pillowcases.  Absolutely gross! Halls, and rooms have a very strong cigarette odor. Opened window for fresh air, and noticed no screens! In addition, the bathroom was not wiped down or anything. Made a toilet seat cover our of T.P. Checked out the next day and checked into the Marriott down the street.</t>
   </si>
   <si>
+    <t>Leanis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r172220641-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1572,6 +1761,9 @@
   </si>
   <si>
     <t>July 2013</t>
+  </si>
+  <si>
+    <t>Jessicarbt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r166828264-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
@@ -1636,6 +1828,9 @@
     <t>Stayed 4 nights here. Smelly in the hallway. Noisy from the workers until about 6:30 PM. Paint peeling on the windowsill. Pipe noise from other guest(s) when they turned the water on. Bed was comfortable though. Limited TV channels. Bad connection on the cable coax. Had to keep jiggling the cable. Great shower. Will probably stay here again....after the renovation is completed.More</t>
   </si>
   <si>
+    <t>girlfromdowntown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r159564025-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1657,6 +1852,9 @@
     <t>the hotel at the Cypress location was just ok. the queen beds were fairly new, the room comes with a mini kitchen with 2 bar stools so you can cook your food, warm staff and location was great.  however, the management of this hotel can improve the quality of their rooms as the one that we were in, was quite a bit dusty, blankets have holes and the door knob at the bathroom was broken.  the rate per night is over kill for the quality of what you get and i think you can pay the same rate at a different more spic and span small hotels in the nearby area of Cypress or even Anaheim.  overall, if you have time to complain perhaps they will fix the imperfections i noted, but then again, those things i mentioned should be basic comforts if you're paying for almost 100/night.More</t>
   </si>
   <si>
+    <t>andy9to9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r156280093-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1681,6 +1879,9 @@
     <t>I was there for a few months. Started as in between places stay. But the made so comfortable I stayed longer. The front desk was so positive and helpful. Carmen is sweet but funny, i for get the new guys name but hes cool, and Brandon is a PRO! Brandon always know an  answer and is very helpful. The room was nice, TV , kitchen, clean bathroom and more.. If ur looking for hotel for a stay of week or more and want it have have home like feel. Then these is the place. More</t>
   </si>
   <si>
+    <t>michael m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r154955280-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1708,6 +1909,9 @@
     <t>This hotel is well-positioned as the service at the front desk is outstanding. I've been happy with everyone there and especially Carmen who went out of her way on several occasions. She is sweet, kind, hard-working and professional.While this budget hotel is not a four-star hotel in terms of amenities or the facility but it's a 10-star in terms of service.More</t>
   </si>
   <si>
+    <t>kk41192</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r151499929-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1735,6 +1939,9 @@
     <t>Extended Stay in Cypress is a great place to stay... clean rooms, very friendly staff that goes out of their way to help or assist.... Carlos, the manager, very professional and friendly along with Sadie and Bryan and the other nice people... the rooms are always cleaned and neat, flat screen tv, .... great place whether for a weekend or long trip...More</t>
   </si>
   <si>
+    <t>Chelle715</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r149893263-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1762,6 +1969,9 @@
     <t>We had reservations booked through a travel site &amp; our reservation transmitted incorrectly.  We called the travel site as soon as the reservation confirmation was received &amp; we were assured that our room would accommodate our entire party.  When we got to the hotel after a day spent at an amusement park to check in we found out that the room we were booked in to would not accommodate our party.  Bryan &amp; Carmen the employees working that night went out of their way to try to accommodate us in to another room since they were sold out with it being a holiday weekend.  While we were on the phone with the travel site dealing with the error Bryan &amp; Carmen continued to try to assist us in finding accommodations that would work for us by providing us the names &amp; phone numbers of nearby hotels so that we could see if we could find other accommodations.More</t>
   </si>
   <si>
+    <t>Joe M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r148221394-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1786,6 +1996,9 @@
     <t>I travel a lot and i stay at a lot of hotels a friend of mine recommended me to try this one and I'm so happy that I did try this hotel the customer service and people where excellent so helpful made me feel real comfortable the kitchen was a big plus for me I love to cook at other hotels that  stayed at they did not have a kitchen area that made my stay at Extended Stay a real good experience the room gave me that home feeling which is always good when you feel at home my time here at Extended Stay was a good one me and my family are planning a vacation most definitely we will be staying at Extended StayMore</t>
   </si>
   <si>
+    <t>udaysasi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r148214037-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1801,6 +2014,9 @@
     <t>Stayed here for 4 nights.. First the positives : The check-in process was quick and easy, There were luggage carts in the lobby to use, The staff were helpful and friendly, The hotel is situated just a few miles away from Disneyland and major freeways, The wireless internet connectivity was good enough, The room had a kitchen, microwave and refrigerator. Now for the bad parts : The carpets are very old and had a strange smell(though not unbearable) - it might be from overuse of air freshener, There is no housekeeping if you stay less than 7 days, which is a very huge inconvenience, You have to make several trips to the lobby for little things like towels, soaps etc, The breakfast offered is ridiculous - its pretty much coffee and some old muffins. Overall, it depends on what your priorities are and how long you stay. Bryan at the front desk was very helpful.More</t>
   </si>
   <si>
+    <t>sgmkjsekar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r144678941-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1828,6 +2044,9 @@
     <t>I stayed here for a night in Sep on business. I chose this hotel to stay with my other colleagues and to the close proximity to work. This is a OK hotel for just one overnight stay. They do offer a grab and go breakfast (just the usual granola bars and muffins). The refrigerator in the hotel did not work and the door also did not close properly. the property seem quite old and guess it is upgraded recently.More</t>
   </si>
   <si>
+    <t>Mike L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r144426501-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1855,6 +2074,9 @@
     <t>Up until my recent trip to CA I had never stayed at an Extended Stay America before. While it wasn't the Ritz Carlton or the Four Seasons, it was one of the most comfortable hotel experiences I've had in quite some time. The staff was friendly and helpful. The amenities in the room were perfect for and extended stay away from home. For work, I used to travel all over the US for 13 years and have stayed at a lot of hotels. I wish places like this would have been around back then. In the future I will (whenever possible) stay at an Extended Stay again.More</t>
   </si>
   <si>
+    <t>S L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r143813518-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1882,6 +2104,9 @@
     <t>It is always better to look for safty rather luxury, I feel.  I happen to stay in this hotel nearly 12 weeks.  During my stay I do not find any problem or diffuculty.  Front desk team is very nice and I say very good staff members been appointed.  They greet very guest and hearthful smile and greet make us feel we are not away from family members.  As a woman staying alone in hotel I always look for safe stay, it is 200% suggestable place I can say.  Good house keeping.  Reasonable price, safe stay with clean &amp; healthy location.   Yet I would like to say there is a little scope for further improvement like smoke detectorMore</t>
   </si>
   <si>
+    <t>cypresstony</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r139113458-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1906,6 +2131,9 @@
     <t>I chose the hotel for a 2-night stay because of my house getting tented for termites.  Their pet policy made it easy for me to bring our cat instead of taking him to a boarder.  The front desk clerk (Sadie) was very flexible and accommodating to me and my wife in getting the cat into the room earlier than the published check-in time.  This reduces a significant amount of stress for me.  I was able to get completely moved in within a couple of hours earlier than I could have been required to do.  Thank you Sadie and Extended Stay America Cypress!More</t>
   </si>
   <si>
+    <t>Joseph R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r138108294-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1930,6 +2158,9 @@
     <t>Once inside doors the carpets looked old, battered, worn, old style, smelt. Each floor looked like it had different color carpet flooring. The smell on each floor wasn’t clean smelling or even looked clean smelled musty and stale. The first room I got was not clean 355. I walked in it looked clean, but could tell and smell it wasnt recently cleaned. The sheets had a scent to them, bed was hard and not comfortable, bathoom was not clean. THe room had a smell of old ant spray and dog dandur. If the room was rented to a person with an animal you cant rent it another person within the same year that doesnt bring a pet without shampooing the floor.The ventilation should be througout the floor on each floor with several intakes fans and outs. I went to each floor after my first room to check the floors and saw the same poor circulation and smells varied. They didnt have any cartoon or children stations available for viewing.More</t>
   </si>
   <si>
+    <t>Nihongoman23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r136674989-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1954,6 +2185,9 @@
     <t>We arrived at 10:30pm greatest very nicely. When we got up into our room I was excited to see that it was fairly large and indeed had a king size bed. After getting settled in. And taking a shower in a half swept half wiped down bathroom. I got ready to lay in bed. The first thing my wife and I noticed was that the bed felt SO hard. My wife even said its okay honey I'll just sleep on the FLOOR!!! to which I replied no. We asked for two extra comforters to create some sort of comfort! I did not go to sleep until about 3am. My wife tossed and turned all night long. During the time I was trying to sleep on this bed I looked at multiple hotels that were close by. All in all I should have spent the extra money to stay at the Marriott down the street like we typically do. The next day I hear my wife say eew!!! There is a bug on the counter. I didn have the rare to tell her it was a small COCKROACH!!!! Horrible hotel. I WILL NOT be staying here ever again!!More</t>
   </si>
   <si>
+    <t>Frank M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r130535408-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -1981,6 +2215,9 @@
     <t>Needed for business trip; early morning meeting on following day of stay and worked very well and very convenient.More</t>
   </si>
   <si>
+    <t>Elias S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r129257677-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -2002,6 +2239,9 @@
     <t>Needed a good, clean and affordable hotel and that's what I got.  It's clean, rates are great and experience was great.  I needed information in the a.m., hours, went to the front desk and they led me in right direction for a place to each.  Only thing is that the hotel is not directly off a major road or at least noticable and that made locating a bit tricky.  Once you get there it's not a problem.More</t>
   </si>
   <si>
+    <t>Lauries1963</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r129069542-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -2021,6 +2261,9 @@
   </si>
   <si>
     <t>The room smelled musty and old.  Room, especially bathroom were dirty.  The hotel was out of soap, so we had to go out to buy our own.  Stove was dirty and rusted, so we didn't feel comfortable using it.  Beds were old and uncomfortable.  We needed synthetic pillows due to allergies to down, but none were available.  After 2 days we cancelled the rest of our week long stay.More</t>
+  </si>
+  <si>
+    <t>derektt1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d217222-r124880603-Extended_Stay_America_Orange_County_Cypress-Cypress_California.html</t>
@@ -2546,43 +2789,47 @@
       <c r="A2" t="n">
         <v>36306</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146622</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2594,56 +2841,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36306</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146623</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2665,56 +2916,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36306</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146624</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2732,56 +2987,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36306</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146625</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2797,56 +3056,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36306</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>114667</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2868,56 +3131,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36306</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>89733</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2929,56 +3196,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36306</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146626</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2990,56 +3261,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36306</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146627</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3051,56 +3326,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36306</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146628</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3114,56 +3393,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36306</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146629</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3185,56 +3468,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36306</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>4278</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3246,56 +3533,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36306</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146630</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>143</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="O13" t="s">
         <v>144</v>
-      </c>
-      <c r="J13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" t="s">
-        <v>147</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O13" t="s">
-        <v>134</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3317,56 +3608,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36306</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>58816</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3388,56 +3683,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36306</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146631</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3455,56 +3754,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36306</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146632</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3526,56 +3829,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36306</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146633</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3597,56 +3904,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36306</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146634</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3664,56 +3975,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36306</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146635</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3725,56 +4040,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36306</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146636</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3790,56 +4109,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36306</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146637</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3851,56 +4174,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36306</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>63325</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O22" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3920,50 +4247,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36306</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146638</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O23" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3975,56 +4306,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36306</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146639</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4040,56 +4375,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36306</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146640</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O25" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4103,50 +4442,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36306</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146641</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4162,56 +4505,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36306</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146642</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4225,50 +4572,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36306</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>60008</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4280,56 +4631,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="X28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36306</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146643</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O29" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4343,50 +4698,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36306</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4406,50 +4765,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36306</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>9583</v>
+      </c>
+      <c r="C31" t="s">
+        <v>308</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="K31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O31" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4461,56 +4824,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36306</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146644</v>
+      </c>
+      <c r="C32" t="s">
+        <v>317</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4528,56 +4895,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="X32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36306</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146645</v>
+      </c>
+      <c r="C33" t="s">
+        <v>327</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="O33" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4591,50 +4962,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36306</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146646</v>
+      </c>
+      <c r="C34" t="s">
+        <v>335</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4652,50 +5027,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36306</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146647</v>
+      </c>
+      <c r="C35" t="s">
+        <v>343</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="K35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="L35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4709,50 +5088,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36306</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146648</v>
+      </c>
+      <c r="C36" t="s">
+        <v>350</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="J36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="K36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="L36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4772,50 +5155,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36306</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146649</v>
+      </c>
+      <c r="C37" t="s">
+        <v>357</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="J37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="K37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4829,50 +5216,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36306</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>57904</v>
+      </c>
+      <c r="C38" t="s">
+        <v>363</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="J38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="L38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="O38" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4886,50 +5277,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36306</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146650</v>
+      </c>
+      <c r="C39" t="s">
+        <v>370</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="J39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="K39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="L39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="O39" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4947,50 +5342,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36306</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146651</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5004,50 +5403,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36306</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146652</v>
+      </c>
+      <c r="C41" t="s">
+        <v>384</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="J41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="K41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="L41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="O41" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -5067,50 +5470,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36306</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146653</v>
+      </c>
+      <c r="C42" t="s">
+        <v>391</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="J42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="K42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5124,50 +5531,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36306</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146654</v>
+      </c>
+      <c r="C43" t="s">
+        <v>398</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="J43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="L43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5185,50 +5596,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36306</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>904</v>
+      </c>
+      <c r="C44" t="s">
+        <v>405</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="J44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="K44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="O44" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5246,56 +5661,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="X44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="Y44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36306</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146655</v>
+      </c>
+      <c r="C45" t="s">
+        <v>415</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="J45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="K45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="L45" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5307,56 +5726,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="X45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="Y45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36306</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146656</v>
+      </c>
+      <c r="C46" t="s">
+        <v>424</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="J46" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="K46" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="L46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="O46" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5368,47 +5791,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="X46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="Y46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36306</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146657</v>
+      </c>
+      <c r="C47" t="s">
+        <v>434</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="J47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="K47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="L47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -5435,56 +5862,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="X47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="Y47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36306</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>80707</v>
+      </c>
+      <c r="C48" t="s">
+        <v>443</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="J48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="K48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="L48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="O48" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5502,56 +5933,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="X48" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="Y48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36306</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>47408</v>
+      </c>
+      <c r="C49" t="s">
+        <v>451</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="J49" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="K49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="L49" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="O49" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5567,56 +6002,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="X49" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="Y49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36306</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>6703</v>
+      </c>
+      <c r="C50" t="s">
+        <v>461</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="J50" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="K50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="L50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5632,47 +6071,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="X50" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="Y50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36306</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>13431</v>
+      </c>
+      <c r="C51" t="s">
+        <v>469</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="J51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="K51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="L51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
@@ -5699,56 +6142,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="X51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="Y51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36306</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146658</v>
+      </c>
+      <c r="C52" t="s">
+        <v>478</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="J52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="K52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="L52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="O52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5766,56 +6213,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="X52" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="Y52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36306</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146659</v>
+      </c>
+      <c r="C53" t="s">
+        <v>486</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="J53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="K53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="L53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="O53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5839,50 +6290,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36306</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146660</v>
+      </c>
+      <c r="C54" t="s">
+        <v>494</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="J54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="K54" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="L54" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5906,50 +6361,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36306</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146661</v>
+      </c>
+      <c r="C55" t="s">
+        <v>501</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="J55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="K55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="L55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="O55" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5973,50 +6432,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36306</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146662</v>
+      </c>
+      <c r="C56" t="s">
+        <v>508</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="J56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="K56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="L56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6038,47 +6501,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="X56" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="Y56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36306</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146663</v>
+      </c>
+      <c r="C57" t="s">
+        <v>517</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="J57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="K57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="L57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -6107,50 +6574,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36306</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146664</v>
+      </c>
+      <c r="C58" t="s">
+        <v>523</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="J58" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="K58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="L58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="O58" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -6174,50 +6645,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36306</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146665</v>
+      </c>
+      <c r="C59" t="s">
+        <v>531</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="J59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="K59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="L59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -6241,50 +6716,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36306</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146666</v>
+      </c>
+      <c r="C60" t="s">
+        <v>539</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="J60" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="K60" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="L60" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="O60" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6308,50 +6787,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36306</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146667</v>
+      </c>
+      <c r="C61" t="s">
+        <v>547</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="J61" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K61" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="L61" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="O61" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6365,50 +6848,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36306</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146668</v>
+      </c>
+      <c r="C62" t="s">
+        <v>554</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="J62" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="K62" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="L62" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="O62" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6430,56 +6917,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="X62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="Y62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36306</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146669</v>
+      </c>
+      <c r="C63" t="s">
+        <v>564</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="J63" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="K63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="L63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="O63" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -6503,50 +6994,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36306</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146670</v>
+      </c>
+      <c r="C64" t="s">
+        <v>570</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="J64" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="K64" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="L64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="O64" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6570,50 +7065,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36306</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146671</v>
+      </c>
+      <c r="C65" t="s">
+        <v>577</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="J65" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="K65" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="L65" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6635,56 +7134,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="X65" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="Y65" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36306</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146669</v>
+      </c>
+      <c r="C66" t="s">
+        <v>570</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="J66" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="K66" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="L66" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="O66" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6706,56 +7209,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="X66" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="Y66" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36306</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146672</v>
+      </c>
+      <c r="C67" t="s">
+        <v>596</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="J67" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="K67" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="L67" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="O67" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6777,47 +7284,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="X67" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="Y67" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36306</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146673</v>
+      </c>
+      <c r="C68" t="s">
+        <v>604</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="J68" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="K68" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="L68" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -6844,56 +7355,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="X68" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="Y68" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36306</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>7033</v>
+      </c>
+      <c r="C69" t="s">
+        <v>613</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="J69" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="K69" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="L69" t="s">
-        <v>551</v>
+        <v>618</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="O69" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6915,56 +7430,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="X69" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="Y69" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36306</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146674</v>
+      </c>
+      <c r="C70" t="s">
+        <v>623</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="J70" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="K70" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="L70" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="O70" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6986,56 +7505,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="X70" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="Y70" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36306</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146675</v>
+      </c>
+      <c r="C71" t="s">
+        <v>633</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="J71" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="K71" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="L71" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="O71" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7053,56 +7576,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="X71" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="Y71" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>36306</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>4124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>643</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="J72" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="K72" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="L72" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="O72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7124,56 +7651,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="X72" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="Y72" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>36306</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146676</v>
+      </c>
+      <c r="C73" t="s">
+        <v>652</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="J73" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="K73" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="L73" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="O73" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7195,56 +7726,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="X73" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="Y73" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>36306</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146677</v>
+      </c>
+      <c r="C74" t="s">
+        <v>658</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="J74" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="K74" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="L74" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="O74" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7266,56 +7801,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="X74" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="Y74" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>36306</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>925</v>
+      </c>
+      <c r="C75" t="s">
+        <v>668</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="J75" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="K75" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="L75" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="O75" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7337,56 +7876,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="X75" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="Y75" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>36306</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>25737</v>
+      </c>
+      <c r="C76" t="s">
+        <v>678</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="J76" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="K76" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
       <c r="L76" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="O76" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7408,56 +7951,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="X76" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
       <c r="Y76" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>36306</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146678</v>
+      </c>
+      <c r="C77" t="s">
+        <v>688</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="J77" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="K77" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="L77" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O77" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7479,56 +8026,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="X77" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="Y77" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>36306</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C78" t="s">
+        <v>697</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="J78" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="K78" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="L78" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O78" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7550,47 +8101,51 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="X78" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="Y78" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>36306</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146679</v>
+      </c>
+      <c r="C79" t="s">
+        <v>706</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="J79" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="K79" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="L79" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
@@ -7617,56 +8172,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="X79" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="Y79" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>36306</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>16846</v>
+      </c>
+      <c r="C80" t="s">
+        <v>715</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="J80" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="K80" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="L80" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="O80" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7688,56 +8247,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="X80" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="Y80" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>36306</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>146680</v>
+      </c>
+      <c r="C81" t="s">
+        <v>725</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="J81" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="K81" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="L81" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="O81" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7759,56 +8322,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="X81" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="Y81" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>36306</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>146681</v>
+      </c>
+      <c r="C82" t="s">
+        <v>733</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="J82" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="K82" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="L82" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="O82" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P82" t="n">
         <v>2</v>
@@ -7830,56 +8397,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="X82" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="Y82" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>36306</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146682</v>
+      </c>
+      <c r="C83" t="s">
+        <v>741</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="J83" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="K83" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="L83" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
       <c r="O83" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7901,13 +8472,13 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="X83" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="Y83" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_271.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_271.xlsx
@@ -2790,7 +2790,7 @@
         <v>36306</v>
       </c>
       <c r="B2" t="n">
-        <v>146622</v>
+        <v>177969</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2855,7 +2855,7 @@
         <v>36306</v>
       </c>
       <c r="B3" t="n">
-        <v>146623</v>
+        <v>177970</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2930,7 +2930,7 @@
         <v>36306</v>
       </c>
       <c r="B4" t="n">
-        <v>146624</v>
+        <v>177971</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -3001,7 +3001,7 @@
         <v>36306</v>
       </c>
       <c r="B5" t="n">
-        <v>146625</v>
+        <v>177972</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3210,7 +3210,7 @@
         <v>36306</v>
       </c>
       <c r="B8" t="n">
-        <v>146626</v>
+        <v>177973</v>
       </c>
       <c r="C8" t="s">
         <v>109</v>
@@ -3275,7 +3275,7 @@
         <v>36306</v>
       </c>
       <c r="B9" t="n">
-        <v>146627</v>
+        <v>177974</v>
       </c>
       <c r="C9" t="s">
         <v>119</v>
@@ -3340,7 +3340,7 @@
         <v>36306</v>
       </c>
       <c r="B10" t="n">
-        <v>146628</v>
+        <v>177975</v>
       </c>
       <c r="C10" t="s">
         <v>130</v>
@@ -3407,7 +3407,7 @@
         <v>36306</v>
       </c>
       <c r="B11" t="n">
-        <v>146629</v>
+        <v>177976</v>
       </c>
       <c r="C11" t="s">
         <v>137</v>
@@ -3547,7 +3547,7 @@
         <v>36306</v>
       </c>
       <c r="B13" t="n">
-        <v>146630</v>
+        <v>177977</v>
       </c>
       <c r="C13" t="s">
         <v>154</v>
@@ -3697,7 +3697,7 @@
         <v>36306</v>
       </c>
       <c r="B15" t="n">
-        <v>146631</v>
+        <v>177978</v>
       </c>
       <c r="C15" t="s">
         <v>170</v>
@@ -3768,7 +3768,7 @@
         <v>36306</v>
       </c>
       <c r="B16" t="n">
-        <v>146632</v>
+        <v>177979</v>
       </c>
       <c r="C16" t="s">
         <v>179</v>
@@ -3843,7 +3843,7 @@
         <v>36306</v>
       </c>
       <c r="B17" t="n">
-        <v>146633</v>
+        <v>177980</v>
       </c>
       <c r="C17" t="s">
         <v>188</v>
@@ -3918,7 +3918,7 @@
         <v>36306</v>
       </c>
       <c r="B18" t="n">
-        <v>146634</v>
+        <v>177981</v>
       </c>
       <c r="C18" t="s">
         <v>198</v>
@@ -3989,7 +3989,7 @@
         <v>36306</v>
       </c>
       <c r="B19" t="n">
-        <v>146635</v>
+        <v>177982</v>
       </c>
       <c r="C19" t="s">
         <v>208</v>
@@ -4054,7 +4054,7 @@
         <v>36306</v>
       </c>
       <c r="B20" t="n">
-        <v>146636</v>
+        <v>177983</v>
       </c>
       <c r="C20" t="s">
         <v>217</v>
@@ -4123,7 +4123,7 @@
         <v>36306</v>
       </c>
       <c r="B21" t="n">
-        <v>146637</v>
+        <v>177984</v>
       </c>
       <c r="C21" t="s">
         <v>227</v>
@@ -4255,7 +4255,7 @@
         <v>36306</v>
       </c>
       <c r="B23" t="n">
-        <v>146638</v>
+        <v>177985</v>
       </c>
       <c r="C23" t="s">
         <v>241</v>
@@ -4320,7 +4320,7 @@
         <v>36306</v>
       </c>
       <c r="B24" t="n">
-        <v>146639</v>
+        <v>177986</v>
       </c>
       <c r="C24" t="s">
         <v>251</v>
@@ -4389,7 +4389,7 @@
         <v>36306</v>
       </c>
       <c r="B25" t="n">
-        <v>146640</v>
+        <v>177987</v>
       </c>
       <c r="C25" t="s">
         <v>261</v>
@@ -4450,7 +4450,7 @@
         <v>36306</v>
       </c>
       <c r="B26" t="n">
-        <v>146641</v>
+        <v>177988</v>
       </c>
       <c r="C26" t="s">
         <v>269</v>
@@ -4519,7 +4519,7 @@
         <v>36306</v>
       </c>
       <c r="B27" t="n">
-        <v>146642</v>
+        <v>177989</v>
       </c>
       <c r="C27" t="s">
         <v>278</v>
@@ -4645,7 +4645,7 @@
         <v>36306</v>
       </c>
       <c r="B29" t="n">
-        <v>146643</v>
+        <v>177990</v>
       </c>
       <c r="C29" t="s">
         <v>294</v>
@@ -4838,7 +4838,7 @@
         <v>36306</v>
       </c>
       <c r="B32" t="n">
-        <v>146644</v>
+        <v>177991</v>
       </c>
       <c r="C32" t="s">
         <v>317</v>
@@ -4909,7 +4909,7 @@
         <v>36306</v>
       </c>
       <c r="B33" t="n">
-        <v>146645</v>
+        <v>177992</v>
       </c>
       <c r="C33" t="s">
         <v>327</v>
@@ -4970,7 +4970,7 @@
         <v>36306</v>
       </c>
       <c r="B34" t="n">
-        <v>146646</v>
+        <v>177993</v>
       </c>
       <c r="C34" t="s">
         <v>335</v>
@@ -5035,7 +5035,7 @@
         <v>36306</v>
       </c>
       <c r="B35" t="n">
-        <v>146647</v>
+        <v>177994</v>
       </c>
       <c r="C35" t="s">
         <v>343</v>
@@ -5096,7 +5096,7 @@
         <v>36306</v>
       </c>
       <c r="B36" t="n">
-        <v>146648</v>
+        <v>177995</v>
       </c>
       <c r="C36" t="s">
         <v>350</v>
@@ -5163,7 +5163,7 @@
         <v>36306</v>
       </c>
       <c r="B37" t="n">
-        <v>146649</v>
+        <v>177996</v>
       </c>
       <c r="C37" t="s">
         <v>357</v>
@@ -5285,7 +5285,7 @@
         <v>36306</v>
       </c>
       <c r="B39" t="n">
-        <v>146650</v>
+        <v>177997</v>
       </c>
       <c r="C39" t="s">
         <v>370</v>
@@ -5350,7 +5350,7 @@
         <v>36306</v>
       </c>
       <c r="B40" t="n">
-        <v>146651</v>
+        <v>177998</v>
       </c>
       <c r="C40" t="s">
         <v>377</v>
@@ -5411,7 +5411,7 @@
         <v>36306</v>
       </c>
       <c r="B41" t="n">
-        <v>146652</v>
+        <v>177999</v>
       </c>
       <c r="C41" t="s">
         <v>384</v>
@@ -5478,7 +5478,7 @@
         <v>36306</v>
       </c>
       <c r="B42" t="n">
-        <v>146653</v>
+        <v>178000</v>
       </c>
       <c r="C42" t="s">
         <v>391</v>
@@ -5539,7 +5539,7 @@
         <v>36306</v>
       </c>
       <c r="B43" t="n">
-        <v>146654</v>
+        <v>178001</v>
       </c>
       <c r="C43" t="s">
         <v>398</v>
@@ -5675,7 +5675,7 @@
         <v>36306</v>
       </c>
       <c r="B45" t="n">
-        <v>146655</v>
+        <v>178002</v>
       </c>
       <c r="C45" t="s">
         <v>415</v>
@@ -5740,7 +5740,7 @@
         <v>36306</v>
       </c>
       <c r="B46" t="n">
-        <v>146656</v>
+        <v>178003</v>
       </c>
       <c r="C46" t="s">
         <v>424</v>
@@ -5805,7 +5805,7 @@
         <v>36306</v>
       </c>
       <c r="B47" t="n">
-        <v>146657</v>
+        <v>178004</v>
       </c>
       <c r="C47" t="s">
         <v>434</v>
@@ -6156,7 +6156,7 @@
         <v>36306</v>
       </c>
       <c r="B52" t="n">
-        <v>146658</v>
+        <v>178005</v>
       </c>
       <c r="C52" t="s">
         <v>478</v>
@@ -6227,7 +6227,7 @@
         <v>36306</v>
       </c>
       <c r="B53" t="n">
-        <v>146659</v>
+        <v>178006</v>
       </c>
       <c r="C53" t="s">
         <v>486</v>
@@ -6298,7 +6298,7 @@
         <v>36306</v>
       </c>
       <c r="B54" t="n">
-        <v>146660</v>
+        <v>178007</v>
       </c>
       <c r="C54" t="s">
         <v>494</v>
@@ -6369,7 +6369,7 @@
         <v>36306</v>
       </c>
       <c r="B55" t="n">
-        <v>146661</v>
+        <v>178008</v>
       </c>
       <c r="C55" t="s">
         <v>501</v>
@@ -6440,7 +6440,7 @@
         <v>36306</v>
       </c>
       <c r="B56" t="n">
-        <v>146662</v>
+        <v>178009</v>
       </c>
       <c r="C56" t="s">
         <v>508</v>
@@ -6515,7 +6515,7 @@
         <v>36306</v>
       </c>
       <c r="B57" t="n">
-        <v>146663</v>
+        <v>178010</v>
       </c>
       <c r="C57" t="s">
         <v>517</v>
@@ -6582,7 +6582,7 @@
         <v>36306</v>
       </c>
       <c r="B58" t="n">
-        <v>146664</v>
+        <v>178011</v>
       </c>
       <c r="C58" t="s">
         <v>523</v>
@@ -6653,7 +6653,7 @@
         <v>36306</v>
       </c>
       <c r="B59" t="n">
-        <v>146665</v>
+        <v>178012</v>
       </c>
       <c r="C59" t="s">
         <v>531</v>
@@ -6724,7 +6724,7 @@
         <v>36306</v>
       </c>
       <c r="B60" t="n">
-        <v>146666</v>
+        <v>178013</v>
       </c>
       <c r="C60" t="s">
         <v>539</v>
@@ -6795,7 +6795,7 @@
         <v>36306</v>
       </c>
       <c r="B61" t="n">
-        <v>146667</v>
+        <v>178014</v>
       </c>
       <c r="C61" t="s">
         <v>547</v>
@@ -6856,7 +6856,7 @@
         <v>36306</v>
       </c>
       <c r="B62" t="n">
-        <v>146668</v>
+        <v>178015</v>
       </c>
       <c r="C62" t="s">
         <v>554</v>
@@ -6931,7 +6931,7 @@
         <v>36306</v>
       </c>
       <c r="B63" t="n">
-        <v>146669</v>
+        <v>178016</v>
       </c>
       <c r="C63" t="s">
         <v>564</v>
@@ -7002,7 +7002,7 @@
         <v>36306</v>
       </c>
       <c r="B64" t="n">
-        <v>146670</v>
+        <v>146635</v>
       </c>
       <c r="C64" t="s">
         <v>570</v>
@@ -7073,7 +7073,7 @@
         <v>36306</v>
       </c>
       <c r="B65" t="n">
-        <v>146671</v>
+        <v>178017</v>
       </c>
       <c r="C65" t="s">
         <v>577</v>
@@ -7148,7 +7148,7 @@
         <v>36306</v>
       </c>
       <c r="B66" t="n">
-        <v>146669</v>
+        <v>146635</v>
       </c>
       <c r="C66" t="s">
         <v>570</v>
@@ -7223,7 +7223,7 @@
         <v>36306</v>
       </c>
       <c r="B67" t="n">
-        <v>146672</v>
+        <v>178018</v>
       </c>
       <c r="C67" t="s">
         <v>596</v>
@@ -7298,7 +7298,7 @@
         <v>36306</v>
       </c>
       <c r="B68" t="n">
-        <v>146673</v>
+        <v>178019</v>
       </c>
       <c r="C68" t="s">
         <v>604</v>
@@ -7444,7 +7444,7 @@
         <v>36306</v>
       </c>
       <c r="B70" t="n">
-        <v>146674</v>
+        <v>178020</v>
       </c>
       <c r="C70" t="s">
         <v>623</v>
@@ -7519,7 +7519,7 @@
         <v>36306</v>
       </c>
       <c r="B71" t="n">
-        <v>146675</v>
+        <v>178021</v>
       </c>
       <c r="C71" t="s">
         <v>633</v>
@@ -7665,7 +7665,7 @@
         <v>36306</v>
       </c>
       <c r="B73" t="n">
-        <v>146676</v>
+        <v>178022</v>
       </c>
       <c r="C73" t="s">
         <v>652</v>
@@ -7740,7 +7740,7 @@
         <v>36306</v>
       </c>
       <c r="B74" t="n">
-        <v>146677</v>
+        <v>178023</v>
       </c>
       <c r="C74" t="s">
         <v>658</v>
@@ -7965,7 +7965,7 @@
         <v>36306</v>
       </c>
       <c r="B77" t="n">
-        <v>146678</v>
+        <v>178024</v>
       </c>
       <c r="C77" t="s">
         <v>688</v>
@@ -8115,7 +8115,7 @@
         <v>36306</v>
       </c>
       <c r="B79" t="n">
-        <v>146679</v>
+        <v>178025</v>
       </c>
       <c r="C79" t="s">
         <v>706</v>
@@ -8261,7 +8261,7 @@
         <v>36306</v>
       </c>
       <c r="B81" t="n">
-        <v>146680</v>
+        <v>178026</v>
       </c>
       <c r="C81" t="s">
         <v>725</v>
@@ -8336,7 +8336,7 @@
         <v>36306</v>
       </c>
       <c r="B82" t="n">
-        <v>146681</v>
+        <v>178027</v>
       </c>
       <c r="C82" t="s">
         <v>733</v>
@@ -8411,7 +8411,7 @@
         <v>36306</v>
       </c>
       <c r="B83" t="n">
-        <v>146682</v>
+        <v>178028</v>
       </c>
       <c r="C83" t="s">
         <v>741</v>
